--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32431-d77107-Reviews-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>117</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Econo-Lodge-Glendale.h3039.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="474">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1308 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r563159129-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>32431</t>
+  </si>
+  <si>
+    <t>77107</t>
+  </si>
+  <si>
+    <t>563159129</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>A nice budget stay</t>
+  </si>
+  <si>
+    <t>The hotel is kinda hard to get into do to traffic, but other wise is really nice for a budget hotel. The room was clean. Only bad thing is the beds were rather hard. The breakfast was all various forms of carbs. Nick at the front desk was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is kinda hard to get into do to traffic, but other wise is really nice for a budget hotel. The room was clean. Only bad thing is the beds were rather hard. The breakfast was all various forms of carbs. Nick at the front desk was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552356707-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>552356707</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Convenient Value Hotel</t>
+  </si>
+  <si>
+    <t>Booked this hotel as an alternative to much more expensive options in Pasadena for our Rose Bowl Parade/Game adventure.  The area seemed very safe and it is a very quiet hotel with comfortable beds.  The staff was helpful and friendly and the rooms were clean.  Only criticism of the accommodations would be the phone had a light that flashed non stop and when I called the front desk they said to unplug it as they came that way from the factory and they didn't know how to turn it off.  Also our fridge was unplugged and not working and even after we plugged it in it never really got cold.  Another plus to the hotel is the grocery store across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Booked this hotel as an alternative to much more expensive options in Pasadena for our Rose Bowl Parade/Game adventure.  The area seemed very safe and it is a very quiet hotel with comfortable beds.  The staff was helpful and friendly and the rooms were clean.  Only criticism of the accommodations would be the phone had a light that flashed non stop and when I called the front desk they said to unplug it as they came that way from the factory and they didn't know how to turn it off.  Also our fridge was unplugged and not working and even after we plugged it in it never really got cold.  Another plus to the hotel is the grocery store across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552122608-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>552122608</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Sufficient</t>
+  </si>
+  <si>
+    <t>We decided that this Econo Lodge offered the best value for our Los Angeles area stay, and while the Lodge did not necessarily disappoint, their simply was not much good about it. It was merely sufficient, providing the basic needs for budget travelers. The TV was small, the breakfast offerings meager (although it was nice that there was breakfast at all), and, most egregiously, the bathroom was quite dirty. You get what you pay for. As long as you do not expect too much, Econo Lodge can be a viable option, but it would not be my top choice, even on a tight budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>We decided that this Econo Lodge offered the best value for our Los Angeles area stay, and while the Lodge did not necessarily disappoint, their simply was not much good about it. It was merely sufficient, providing the basic needs for budget travelers. The TV was small, the breakfast offerings meager (although it was nice that there was breakfast at all), and, most egregiously, the bathroom was quite dirty. You get what you pay for. As long as you do not expect too much, Econo Lodge can be a viable option, but it would not be my top choice, even on a tight budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r534768921-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>534768921</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This place was clean and cozy.  The service was great too.  The price was good, the rooms clean and conveniently  located 2 blocks from Starbucks   we will stay here again if we are in the area.  We visited Universal Studios and used Umber,  it was under $13 each way, using pool, but we were alone in the cars.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>This place was clean and cozy.  The service was great too.  The price was good, the rooms clean and conveniently  located 2 blocks from Starbucks   we will stay here again if we are in the area.  We visited Universal Studios and used Umber,  it was under $13 each way, using pool, but we were alone in the cars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r521137126-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>521137126</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location on Colorado Boulevard near freeways and half way between downtown Glendale and Pasadena.  When we were there the place was full and there was a shortage of parking, and some guests needed to park on the busy boulevard.  The room was clean but dated, and it needed some minor repairs. Overall, not bad for a basic 1970s era hotel.  No pool, no elevator, no extras.  The breakfast was okay, but minimal.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location on Colorado Boulevard near freeways and half way between downtown Glendale and Pasadena.  When we were there the place was full and there was a shortage of parking, and some guests needed to park on the busy boulevard.  The room was clean but dated, and it needed some minor repairs. Overall, not bad for a basic 1970s era hotel.  No pool, no elevator, no extras.  The breakfast was okay, but minimal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r513000174-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>513000174</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Super clean and tastefully decorated rooms</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay at the Econo Lodge in  Glendale. Check In was super easy and I was recognized as a Choice rewards customer. The room was spotless and very tastefully decorated. It was very clean and completely as described. My only problem was the TV remote did not work, when I mentioned it the next morning they were apologetic and said if I had let them know earlier they would have fixed it. The grounds were very clean and a nice patio table out on the second floor.  The table was especially nice as I purchased take out from a Vietnamese place a block away and had a nice picnic.I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay at the Econo Lodge in  Glendale. Check In was super easy and I was recognized as a Choice rewards customer. The room was spotless and very tastefully decorated. It was very clean and completely as described. My only problem was the TV remote did not work, when I mentioned it the next morning they were apologetic and said if I had let them know earlier they would have fixed it. The grounds were very clean and a nice patio table out on the second floor.  The table was especially nice as I purchased take out from a Vietnamese place a block away and had a nice picnic.I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r488032105-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>488032105</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>ticked our boxes</t>
+  </si>
+  <si>
+    <t>We chose here as it seemed good value for money and its location to Universal Studios and Warner Brothers Studios. It ticked the boxes of all our requirements, the bed was extremely comfortable which was awesome after a long day at the Theme parks and tours. Breakfast included was an added bonus. Would stay here again. Good little asian takeaway/restaurant directly across the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>We chose here as it seemed good value for money and its location to Universal Studios and Warner Brothers Studios. It ticked the boxes of all our requirements, the bed was extremely comfortable which was awesome after a long day at the Theme parks and tours. Breakfast included was an added bonus. Would stay here again. Good little asian takeaway/restaurant directly across the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r486130506-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>486130506</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Good for a one night stay</t>
+  </si>
+  <si>
+    <t>We stayed here for an economical place near Universal Studios.  The hotel is older but still nice for the price. The room was comfortable and clean, although it showed its age in places. The breakfast wasn't a big spread,but took care of our needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for an economical place near Universal Studios.  The hotel is older but still nice for the price. The room was comfortable and clean, although it showed its age in places. The breakfast wasn't a big spread,but took care of our needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r476143760-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>476143760</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I didn't expect this hotel to be so good. The room I got was big. It was just on the lobby so had lot of open space on 2nd floor.   I would recommend this hotel. Only disadvantage was the breakfast.  Choice was very limited and I didn't eat there as only few pancakes and nothing else at that time.  Can't complain about that as we paid very less. But definitely it is a big issue when the same room price goes to two hundred bucks for the weekend. Rooms were very clean, quiet. Friendly staff. Free parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I didn't expect this hotel to be so good. The room I got was big. It was just on the lobby so had lot of open space on 2nd floor.   I would recommend this hotel. Only disadvantage was the breakfast.  Choice was very limited and I didn't eat there as only few pancakes and nothing else at that time.  Can't complain about that as we paid very less. But definitely it is a big issue when the same room price goes to two hundred bucks for the weekend. Rooms were very clean, quiet. Friendly staff. Free parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r457098026-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>457098026</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Old and dated hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at Econo Lodge for one week and did not have a nice stay.The 'continental' breakfast includes coffee, orange juice, waffles, biscuits and that's about it.The rooms are clean but very old and not comfortable. Overall I cannot recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at Econo Lodge for one week and did not have a nice stay.The 'continental' breakfast includes coffee, orange juice, waffles, biscuits and that's about it.The rooms are clean but very old and not comfortable. Overall I cannot recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r445645665-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>445645665</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Clean, quiet, efficient for a good price</t>
+  </si>
+  <si>
+    <t>I checked in late at the Econo Lodge on Colorado in Burbank. A call at 8PM to let them know that I would be there by 11 was - I felt - a necessary courtesy. When I arrived at 11, check-in was quick, my room was ready, and I had a great night's sleep. Even though it is on busy Colorado, it was quiet - other than a later arriving guest bumping their rollaboard up the stairs. (People, have some common courtesy!) A simple breakfast in the lobby the next morning included bake-it-yourself waffles, cereal, toast and some fruit. Great location, efficient staff, and clean - must have's at the end of a business day.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2016</t>
+  </si>
+  <si>
+    <t>I checked in late at the Econo Lodge on Colorado in Burbank. A call at 8PM to let them know that I would be there by 11 was - I felt - a necessary courtesy. When I arrived at 11, check-in was quick, my room was ready, and I had a great night's sleep. Even though it is on busy Colorado, it was quiet - other than a later arriving guest bumping their rollaboard up the stairs. (People, have some common courtesy!) A simple breakfast in the lobby the next morning included bake-it-yourself waffles, cereal, toast and some fruit. Great location, efficient staff, and clean - must have's at the end of a business day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r443284944-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>443284944</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>OK Place to Stay</t>
+  </si>
+  <si>
+    <t>I was going to give a higher rating, but a roach just ran across my room. Other than that, the room is clean and large. It's pretty basic, but if you don't need drawers (3 small drawers) or care that your closet is a bar in the sink area, it's fine. It was what I expected for the price, except for the roach.MoreShow less</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>I was going to give a higher rating, but a roach just ran across my room. Other than that, the room is clean and large. It's pretty basic, but if you don't need drawers (3 small drawers) or care that your closet is a bar in the sink area, it's fine. It was what I expected for the price, except for the roach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r433276534-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>433276534</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Good budget hotel</t>
+  </si>
+  <si>
+    <t>I'd say this place was pretty legit if you're looking for a budget stay. Came here because we were going to Universal HHN. It's about a 10min drive to Universal city walk. They have comfy beds, clean rooms/bathroom. They offer a small breakfast in the morning. My only complaint was that you can hear the busy street in the mornings and nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>I'd say this place was pretty legit if you're looking for a budget stay. Came here because we were going to Universal HHN. It's about a 10min drive to Universal city walk. They have comfy beds, clean rooms/bathroom. They offer a small breakfast in the morning. My only complaint was that you can hear the busy street in the mornings and nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r431651908-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>431651908</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Convenient</t>
+  </si>
+  <si>
+    <t>Finding a good hotel room in Glendale on just about any weekend seems to be a challenge in the economy rate.  We had a nice room with a living room with a dining table and a bedroom with two queen beds.  It is not the most modern, but it is clean, and had a decent breakfast in the morning (although a bit crowded).  The staff are all friendly, there is recycling, and it was nice to be able to close the bedroom door so I could sleep later than the kids.  There is no pool, off-street parking is free, ice and soda machines, laundry and lots of restaurants within walking distance.  We were in a room right next to Colorado Street, but it was surprisingly quiet.  2 floors and no elevator in case that is an issue.  Part of Choice Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Finding a good hotel room in Glendale on just about any weekend seems to be a challenge in the economy rate.  We had a nice room with a living room with a dining table and a bedroom with two queen beds.  It is not the most modern, but it is clean, and had a decent breakfast in the morning (although a bit crowded).  The staff are all friendly, there is recycling, and it was nice to be able to close the bedroom door so I could sleep later than the kids.  There is no pool, off-street parking is free, ice and soda machines, laundry and lots of restaurants within walking distance.  We were in a room right next to Colorado Street, but it was surprisingly quiet.  2 floors and no elevator in case that is an issue.  Part of Choice Hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r430298109-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>430298109</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>We chose this Econo Lodge based on other reviews on TripAdvisor.  I hadn't stayed in an Econo Lodge before, but was pleasantly surprised when we got here. The room was not fancy, but everything was immaculately clean. The beds are very comfortable, and there are plenty of outlets near them. Wifi is decent too. Staff is very pleasant and accommodating. This is a small hotel so there aren't a lot of amenities. For me that was a plus as it was easy to come and go, easy parking, etc. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this Econo Lodge based on other reviews on TripAdvisor.  I hadn't stayed in an Econo Lodge before, but was pleasantly surprised when we got here. The room was not fancy, but everything was immaculately clean. The beds are very comfortable, and there are plenty of outlets near them. Wifi is decent too. Staff is very pleasant and accommodating. This is a small hotel so there aren't a lot of amenities. For me that was a plus as it was easy to come and go, easy parking, etc. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r420963418-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>420963418</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Great for the money</t>
+  </si>
+  <si>
+    <t>We stayed here for a few nights. Even though it was nothing fancy, it was clean and had lots of things you dont normally find in a hotel at this price- fridge, microwave, iron, hairdryer, ice machine and breakfast. It was close to Hollywood and Universal and close enough to restaurants that we walked to many places to eat. We had no issues with parking even though the lot was small. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a few nights. Even though it was nothing fancy, it was clean and had lots of things you dont normally find in a hotel at this price- fridge, microwave, iron, hairdryer, ice machine and breakfast. It was close to Hollywood and Universal and close enough to restaurants that we walked to many places to eat. We had no issues with parking even though the lot was small. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409603985-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>409603985</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Hidden Jewel</t>
+  </si>
+  <si>
+    <t>This motel is a hidden jewel in the hustle - bustle of Glendale. Granted it is an older motel but very clean and comfortable.  The  entry/parking area is tucked away from the street and lined with potted, flowering plants. There is also a balcony, sitting area which is very pleasant.  The staff is efficient, friendly and always ready to assist.  There is a contential breakfast available but plenty of food offerings within a short walk.  It's close to many notable tourist destinations but a quiet respite for travelers. The price is modest for the area but a great place to stay.  I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is a hidden jewel in the hustle - bustle of Glendale. Granted it is an older motel but very clean and comfortable.  The  entry/parking area is tucked away from the street and lined with potted, flowering plants. There is also a balcony, sitting area which is very pleasant.  The staff is efficient, friendly and always ready to assist.  There is a contential breakfast available but plenty of food offerings within a short walk.  It's close to many notable tourist destinations but a quiet respite for travelers. The price is modest for the area but a great place to stay.  I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409254320-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>409254320</t>
+  </si>
+  <si>
+    <t>It'll do since there are few options in Glendale</t>
+  </si>
+  <si>
+    <t>Standard motel.Room was quite large, but with old carpet and musty smell.Had a fridge - which was good. There is a supermarket across the street.Breakfast was poor - just waffles, some pastries, and oatmeal.A bit overpriced, but for the area you this is about as cheap as it gets without it being a dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Standard motel.Room was quite large, but with old carpet and musty smell.Had a fridge - which was good. There is a supermarket across the street.Breakfast was poor - just waffles, some pastries, and oatmeal.A bit overpriced, but for the area you this is about as cheap as it gets without it being a dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r395162765-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>395162765</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Nothing special.  Not many restaurant choices.</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights with another couple on our weeklong trip to California.  The room was nice enough, clean but average.  There are only three choices for restaurants within walking distance -- two Chinese and one Italian.  There is a pretty large supermarket across the street, which was a convenience for restocking for our day trips.The continental breakfast was somewhat limited.  A waffle machine, but no eggs or anything with protein, even peanut butter would have been welcome.  The breakfast room is small, so seating is limited.There is no elevator, so if your room is on the 2nd level, you have to carry your bags up the stairs. Your room key card is needed in order to get ice from the machine. I had not seen that before, suggesting that they might have had problems from the neighborhood.We paid about $95/night including taxes. It wasn't the lowest rate we got on our weeklong trip, but it wasn't the highest either.MoreShow less</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights with another couple on our weeklong trip to California.  The room was nice enough, clean but average.  There are only three choices for restaurants within walking distance -- two Chinese and one Italian.  There is a pretty large supermarket across the street, which was a convenience for restocking for our day trips.The continental breakfast was somewhat limited.  A waffle machine, but no eggs or anything with protein, even peanut butter would have been welcome.  The breakfast room is small, so seating is limited.There is no elevator, so if your room is on the 2nd level, you have to carry your bags up the stairs. Your room key card is needed in order to get ice from the machine. I had not seen that before, suggesting that they might have had problems from the neighborhood.We paid about $95/night including taxes. It wasn't the lowest rate we got on our weeklong trip, but it wasn't the highest either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r394881421-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>394881421</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>Located near downtown area, close to major malls, movies and freeways.  The rooms were clean and quiet, everything worked well.  Staff were very friendly and knowledgeable.  I would stay here again, location was greatMoreShow less</t>
+  </si>
+  <si>
+    <t>Located near downtown area, close to major malls, movies and freeways.  The rooms were clean and quiet, everything worked well.  Staff were very friendly and knowledgeable.  I would stay here again, location was greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r392277437-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>392277437</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Very nice, clean, homey hotel</t>
+  </si>
+  <si>
+    <t>This was my first visit to the Glendale Econo Lodge, and I was very pleased indeed. Yes, the decor and the fixtures are a little dated, but it's very clean, very convenient and very comfortable. The front desk staff couldn't be nicer or more accommodating. And I was surprised that the breakfast offerings were much better than those at the Glendale Vagabond Inn. They even have tables! And the rates were absolutely unbeatable. I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first visit to the Glendale Econo Lodge, and I was very pleased indeed. Yes, the decor and the fixtures are a little dated, but it's very clean, very convenient and very comfortable. The front desk staff couldn't be nicer or more accommodating. And I was surprised that the breakfast offerings were much better than those at the Glendale Vagabond Inn. They even have tables! And the rates were absolutely unbeatable. I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r376900200-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>376900200</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Good location for access to Griffith park, Hollywood sign hike and hills east of LA.</t>
+  </si>
+  <si>
+    <t>Rooms and bathroom are small, as is the Dining area.  Rooms were clean and in good condition.  Breakfast items were typical fare, but everything was neat and clean.  No pool.  Check-in was quick.  WIFI worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Rooms and bathroom are small, as is the Dining area.  Rooms were clean and in good condition.  Breakfast items were typical fare, but everything was neat and clean.  No pool.  Check-in was quick.  WIFI worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r373847289-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>373847289</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Nothing fancy but very convenient</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms here for a weekend. Our son was getting married in Eagle Rock and this motel was close to all of the activity locations. This is your typical older motel property but as others have mentioned the beds were very comfortable and the overall property is kept clean. The free breakfast is your standard fare in a small area in the motel lobby. Everything but the beds and TV's in these rooms is old and could use some updating but as I stated above the rooms were clean and the price is a bargain compared to the Best Western down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms here for a weekend. Our son was getting married in Eagle Rock and this motel was close to all of the activity locations. This is your typical older motel property but as others have mentioned the beds were very comfortable and the overall property is kept clean. The free breakfast is your standard fare in a small area in the motel lobby. Everything but the beds and TV's in these rooms is old and could use some updating but as I stated above the rooms were clean and the price is a bargain compared to the Best Western down the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r363222106-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>363222106</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay in Glendale </t>
+  </si>
+  <si>
+    <t>Our primary focus for staying here was being close to universal and Hollywood for sightseeing.  Both were within a 15-20 min drive.The room was a single queen and met our needs. Was nice and clean. The only knock would be the AC unit was a little loud, but on our trip it seems to be the norm. Big bathroom ,but I think it was the handicap roomBreakfast was good, they had  the basic stuff (muffins/ cereal / yogurt/ juices) and waffles, which was good for us.Over we had good value for what we got and the proximity to the things we wanted to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Our primary focus for staying here was being close to universal and Hollywood for sightseeing.  Both were within a 15-20 min drive.The room was a single queen and met our needs. Was nice and clean. The only knock would be the AC unit was a little loud, but on our trip it seems to be the norm. Big bathroom ,but I think it was the handicap roomBreakfast was good, they had  the basic stuff (muffins/ cereal / yogurt/ juices) and waffles, which was good for us.Over we had good value for what we got and the proximity to the things we wanted to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r350391055-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>350391055</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Special Lodging at a Reasonable Price</t>
+  </si>
+  <si>
+    <t>Econo Lodge is a nice place with recently updated rooms.  The rooms have a refrigerator, microwave ovens, and appear clean.The area has several restaurants, is across the street from Ralph's Market, and a nice area to walk during the dayContinental breakfast is great with lots of choices including a waffle iron and batter for making fresh waffles. The breakfast area is bright and uplifting in the morning.Econo Lodge in Glendale is a treat for lodgingMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Econo Lodge is a nice place with recently updated rooms.  The rooms have a refrigerator, microwave ovens, and appear clean.The area has several restaurants, is across the street from Ralph's Market, and a nice area to walk during the dayContinental breakfast is great with lots of choices including a waffle iron and batter for making fresh waffles. The breakfast area is bright and uplifting in the morning.Econo Lodge in Glendale is a treat for lodgingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r347958764-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>347958764</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Econo Lodge, 1437 E Colorado St, Glendale, CA</t>
+  </si>
+  <si>
+    <t>Stayed in Feb. 2016 for 3 nights, room 218. The photos on their website are almost the same except there is no table in a room with a king bed. Clean rooms.When I went to take a bath the 2nd night, there was cold and dirty water in the tub. I called the front desk, they came to see and said they could not do anything and to wait for the next day. It took 1 hour to drain. So no shower or bath even if it had been 85 degrees during the day. The plumber finally came at 3hPM and they told us to move all our stuff to room 217 as the overflow in the bathtub came from an other room.They did not offer a discount or partial refund for changing rooms and for their plumbing problems which force us not to take a bath or shower for 1 night!Breakfast o.k. no fruits.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in Feb. 2016 for 3 nights, room 218. The photos on their website are almost the same except there is no table in a room with a king bed. Clean rooms.When I went to take a bath the 2nd night, there was cold and dirty water in the tub. I called the front desk, they came to see and said they could not do anything and to wait for the next day. It took 1 hour to drain. So no shower or bath even if it had been 85 degrees during the day. The plumber finally came at 3hPM and they told us to move all our stuff to room 217 as the overflow in the bathtub came from an other room.They did not offer a discount or partial refund for changing rooms and for their plumbing problems which force us not to take a bath or shower for 1 night!Breakfast o.k. no fruits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r344882944-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>344882944</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>What a delightful change!</t>
+  </si>
+  <si>
+    <t>I have stayed in a few different motels in the Pasadena, Eagle Rock, Glendale area over the past week and this is by far my favorite!  I think I got the room that is pictured on the website.  It is a huge double queen room.  The decor is well appointed.  The furniture is very new and modern.  The room is clean and comfortable.  The floors, beds, linens and towels all seem to be very clean.  I am very very happy with the accommodations and will definitely consider extending my stay here or returning in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in a few different motels in the Pasadena, Eagle Rock, Glendale area over the past week and this is by far my favorite!  I think I got the room that is pictured on the website.  It is a huge double queen room.  The decor is well appointed.  The furniture is very new and modern.  The room is clean and comfortable.  The floors, beds, linens and towels all seem to be very clean.  I am very very happy with the accommodations and will definitely consider extending my stay here or returning in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r340715451-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>340715451</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Dumpy</t>
+  </si>
+  <si>
+    <t>It is a 1970's version of a motel.  You can never open your curtains because people will always be standing outside your window smoking.  The breakfast is just bread.  The toaster only half works.  If they run out of anything, nobody replaces it.  The location is good.  We never felt unsafe.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>It is a 1970's version of a motel.  You can never open your curtains because people will always be standing outside your window smoking.  The breakfast is just bread.  The toaster only half works.  If they run out of anything, nobody replaces it.  The location is good.  We never felt unsafe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r321487486-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>321487486</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>We booked a room at this hotel at the last minute and based our decision on previous reviews. On arrival, the clerk was super friendly and had everything ready for us. A second floor room was waiting for us. When I asked to be moved to a ground floor room, it was no problem. She changed our keys and wished us a good evening. The room was clean, and smelled clean, too. If you were to look too closely, the age of the building becomes obvious. However, large flat screen tv, USB power outlets built into the wall outlets were nice. Decent bathroom, but more water pressure would have been nice. The bed was a little springy...We left early and did not see what, if any, breakfast service was offered. All in all, it was a comfortable stay, but what impressed me the most, was that we stayed on a Friday night with a football game going on at the school directly behind the motel and didn't hear a thing inside the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We booked a room at this hotel at the last minute and based our decision on previous reviews. On arrival, the clerk was super friendly and had everything ready for us. A second floor room was waiting for us. When I asked to be moved to a ground floor room, it was no problem. She changed our keys and wished us a good evening. The room was clean, and smelled clean, too. If you were to look too closely, the age of the building becomes obvious. However, large flat screen tv, USB power outlets built into the wall outlets were nice. Decent bathroom, but more water pressure would have been nice. The bed was a little springy...We left early and did not see what, if any, breakfast service was offered. All in all, it was a comfortable stay, but what impressed me the most, was that we stayed on a Friday night with a football game going on at the school directly behind the motel and didn't hear a thing inside the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r320501186-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>320501186</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>great value, very good service</t>
+  </si>
+  <si>
+    <t>I needed a budget hotel in the Glendale area and was pretty leery of most of the options. This hotel had good reviews so I went there and found it to be great value. Clean, comfortable, good parking, and really friendly service. I will return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r316452793-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>316452793</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Close to Universal Studios</t>
+  </si>
+  <si>
+    <t>We had tickets to Universal's Halloween Horror Night and did not want to drive an hour and a half home at 2:30 in the morning so we rented a room here. Area was safe and well lit. We got to the hotel around 3am and felt very safe. The hotel was less than 10 minutes from Universal and everything worked well in the hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r306441816-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>306441816</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>My stay !</t>
+  </si>
+  <si>
+    <t>Room was clean the WIFI was sloooow and you couldn't use the lobby computer after 9:30 pm or before 6:am Breakfast was small and skimpy not the usual complementary breakfast I usually have had at other lodges I have stayed at. I went out to a locale restaurant for a decent breakfast eggs toast milk coffee sausage They offered make your own waffles warm milk orange juice stored cereal fruit loops I think. I passed Coffee and a dispenser of milk... The people were friendly and courteous. Altho I may have been charged twice for my room Once with my Master Card then again with my Visa at check in time... Only when I can check with my account statements at the end of the billing cycle will I be sure... I would stay again I liked the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean the WIFI was sloooow and you couldn't use the lobby computer after 9:30 pm or before 6:am Breakfast was small and skimpy not the usual complementary breakfast I usually have had at other lodges I have stayed at. I went out to a locale restaurant for a decent breakfast eggs toast milk coffee sausage They offered make your own waffles warm milk orange juice stored cereal fruit loops I think. I passed Coffee and a dispenser of milk... The people were friendly and courteous. Altho I may have been charged twice for my room Once with my Master Card then again with my Visa at check in time... Only when I can check with my account statements at the end of the billing cycle will I be sure... I would stay again I liked the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r298416187-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>298416187</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Horrible  !!</t>
+  </si>
+  <si>
+    <t>AC was very loud, bed was not clean or confirmable at all. I went to this place after looking at the reviews of this hotel and the other hotels in the same area. Honestly this was the best of the worst based on the reviews. But I just wish I traveled a little longer to a better hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>AC was very loud, bed was not clean or confirmable at all. I went to this place after looking at the reviews of this hotel and the other hotels in the same area. Honestly this was the best of the worst based on the reviews. But I just wish I traveled a little longer to a better hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r278881426-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>278881426</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>My 4th stay at Econo Lodge in recent times...</t>
+  </si>
+  <si>
+    <t>It's been since 2014 since I did my first review. I did it because I saw online booking companies rate it as a 2 star. After my first stay there, I couldn't believe they rated it only as a 2 star hotel. I just stayed 3 days during the Memorial Day Holiday, and I loved it as much then as the first time I stayed there. I had a double room; beautiful; clean; spacious; quiet; microwave; refrigerator; large screen tv; wifi. The rooms that I have stayed in have all been really clean. Bedspreads and sheets are clean. You will be really satisfied if you stay here. In my opinion, it's a 5 star compared to some of the other places I have stayed, including Ramada, Hilton. I found Econo Lodge much better than those two.They have a fairly nice sized lobby where they have a mini breakfast; coffee; Danish; waffles, etc. Plenty of room, tables and chairs. They even have a sun deck on the second floor. You can sit at a table and read a book or lie down and sun yourself.I don't know what else to say. This is a really great place to stay. It is what it is.Kirk :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>It's been since 2014 since I did my first review. I did it because I saw online booking companies rate it as a 2 star. After my first stay there, I couldn't believe they rated it only as a 2 star hotel. I just stayed 3 days during the Memorial Day Holiday, and I loved it as much then as the first time I stayed there. I had a double room; beautiful; clean; spacious; quiet; microwave; refrigerator; large screen tv; wifi. The rooms that I have stayed in have all been really clean. Bedspreads and sheets are clean. You will be really satisfied if you stay here. In my opinion, it's a 5 star compared to some of the other places I have stayed, including Ramada, Hilton. I found Econo Lodge much better than those two.They have a fairly nice sized lobby where they have a mini breakfast; coffee; Danish; waffles, etc. Plenty of room, tables and chairs. They even have a sun deck on the second floor. You can sit at a table and read a book or lie down and sun yourself.I don't know what else to say. This is a really great place to stay. It is what it is.Kirk :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r266900957-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>266900957</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Trip with grand daughters</t>
+  </si>
+  <si>
+    <t>My daughter felt it was a good place in between the Dodger Stadium and Universal Studios.  Breakfast was adequate and the breakfast area very clean. The rooms were adequate.  Everything in working order. Plumbing good and I appreciated the hot water when I took a shower. Parking area very well lit. A few local restaurants and a grocery store within walking distance. Staff not rude but approachable. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My daughter felt it was a good place in between the Dodger Stadium and Universal Studios.  Breakfast was adequate and the breakfast area very clean. The rooms were adequate.  Everything in working order. Plumbing good and I appreciated the hot water when I took a shower. Parking area very well lit. A few local restaurants and a grocery store within walking distance. Staff not rude but approachable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r264124092-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>264124092</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Just stayed here for 3 nights and for the price it's a good hotel.It was clean and comfortable and the staff were friendly and helpful.It is a little bit away from things but not too far.We had a hire car so could get around but was only around a $30 Downtown (staples centre). Dodgers stadium not far away and Hollywood only about a 15min drive depending on traffic.From here we did malibu, Beverly Hills, Hollywood, santa monica, Venice, Hollywood hills and downtown without too much trouble.There are some fast food places and a grocery store nearby so getting a meal at the end of the day was easy.It's not the Ritz Carlton but pretty good for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just stayed here for 3 nights and for the price it's a good hotel.It was clean and comfortable and the staff were friendly and helpful.It is a little bit away from things but not too far.We had a hire car so could get around but was only around a $30 Downtown (staples centre). Dodgers stadium not far away and Hollywood only about a 15min drive depending on traffic.From here we did malibu, Beverly Hills, Hollywood, santa monica, Venice, Hollywood hills and downtown without too much trouble.There are some fast food places and a grocery store nearby so getting a meal at the end of the day was easy.It's not the Ritz Carlton but pretty good for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r241997128-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>241997128</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>At least a 5 star!</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.
+These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.
+There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have...I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have online showing the rooms, etc. -- they are just as nice when you show up. Absolutely beautiful rooms. Clean as they can be. Wifi works perfectly. I honestly can't find any reason to give this less than 5 stars. I shook the hand of the owner before I left and said "thank you." He was all smiles. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.
+These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.
+There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have...I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have online showing the rooms, etc. -- they are just as nice when you show up. Absolutely beautiful rooms. Clean as they can be. Wifi works perfectly. I honestly can't find any reason to give this less than 5 stars. I shook the hand of the owner before I left and said "thank you." He was all smiles. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r241967816-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>241967816</t>
+  </si>
+  <si>
+    <t>There's a reason why it's called Econo Lodge</t>
+  </si>
+  <si>
+    <t>This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.
+The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. 
+I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. 
+The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.
+The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see...This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see hotels or motels as a place to lay your head, you may want to consider this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.
+The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. 
+I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. 
+The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.
+The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see...This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see hotels or motels as a place to lay your head, you may want to consider this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r240968900-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>240968900</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>We flew into LAX and weren't sure of the area, so chose this location...helpful staff; clean room; affordable; nice breakfast choices. Also, this was convenient to Griffith Park, Getty Museum and Villa. We also learned that staying "outside" of LA doesn't' mean less traffic! But having a GPS saves time and marriages!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We flew into LAX and weren't sure of the area, so chose this location...helpful staff; clean room; affordable; nice breakfast choices. Also, this was convenient to Griffith Park, Getty Museum and Villa. We also learned that staying "outside" of LA doesn't' mean less traffic! But having a GPS saves time and marriages!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r229776628-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>229776628</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Average noisy hotel</t>
+  </si>
+  <si>
+    <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor.Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor.Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222284708-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>222284708</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a great location</t>
+  </si>
+  <si>
+    <t>We just returned from a 6 night stay at the Econo Lodge in Glendale, and we were very pleased with the experience. While a budget hotel, it felt "richer"  than some other places that I have stayed in a similar price range. The hotel is clean and comfortable, large rooms, small but adequate breakfast, and the hotel staff are very friendly. Nice little patio on the second level, good place to have your tea or coffee in the morning. The location of the hotel is terrific. Glendale is a lovely area. You have supermarkets, restaurants and the Glendale Galleria right on the same street. Close to Hollywood, the Sunset Strip, Burbank, Studio City, and easy to get to the beaches and a 45 minute drive to Disneyland.Should we find ourselves in Los Angeles again, we would definitely consider staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>We just returned from a 6 night stay at the Econo Lodge in Glendale, and we were very pleased with the experience. While a budget hotel, it felt "richer"  than some other places that I have stayed in a similar price range. The hotel is clean and comfortable, large rooms, small but adequate breakfast, and the hotel staff are very friendly. Nice little patio on the second level, good place to have your tea or coffee in the morning. The location of the hotel is terrific. Glendale is a lovely area. You have supermarkets, restaurants and the Glendale Galleria right on the same street. Close to Hollywood, the Sunset Strip, Burbank, Studio City, and easy to get to the beaches and a 45 minute drive to Disneyland.Should we find ourselves in Los Angeles again, we would definitely consider staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222223972-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>222223972</t>
+  </si>
+  <si>
+    <t>Great little Motel, Glad we stayed here</t>
+  </si>
+  <si>
+    <t>Here for family event, was disappointed we weren't staying in a trendy LA hotel, but this ended up being a charming motel with nice owners, great location, amazing rooms.  Would stay here again, and recommend it to anyone, especially on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>Here for family event, was disappointed we weren't staying in a trendy LA hotel, but this ended up being a charming motel with nice owners, great location, amazing rooms.  Would stay here again, and recommend it to anyone, especially on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r205391144-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>205391144</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Thrifty Doesn't Mean Crummy</t>
+  </si>
+  <si>
+    <t>My husband and I stayed three nights at this Econo Lodge.  We were delightfully surprised at the amenities and service:  hair dryer, soaps, shampoo, etc, iron &amp; full ironing board, free WiFi and parking, plus a large screen TV with cable.  And then there was the clever breakfast which included juices, coffee &amp; tea fixings, cereals, fresh baked goods with a toaster, a stack of current "USA Today"s, and make yourself Belgian waffles with real butter.  In addition to the small dining area there is a roof-top patio.The rooms were small but did have a small table and chairs - the "suites" were more ample.  Only one car per room was permitted.  There were lots of flowers in the limited space near the walkway, many in containers.Over all this is a very acceptable economy option for Glendale.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed three nights at this Econo Lodge.  We were delightfully surprised at the amenities and service:  hair dryer, soaps, shampoo, etc, iron &amp; full ironing board, free WiFi and parking, plus a large screen TV with cable.  And then there was the clever breakfast which included juices, coffee &amp; tea fixings, cereals, fresh baked goods with a toaster, a stack of current "USA Today"s, and make yourself Belgian waffles with real butter.  In addition to the small dining area there is a roof-top patio.The rooms were small but did have a small table and chairs - the "suites" were more ample.  Only one car per room was permitted.  There were lots of flowers in the limited space near the walkway, many in containers.Over all this is a very acceptable economy option for Glendale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r200357179-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>200357179</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Nice People, Fair Price</t>
+  </si>
+  <si>
+    <t>First,  I would stay here again.  I was happy with it -- nothing fancy, but it met my needs.That said, if you're looking for modern, all the bells and whistles, go elsewhere.  It was clean - not immaculate, but fully acceptable.  It was earthy colors, somewhat dated, but comfortable.  There was a mini-fridge, cable TV, wireless internet, an iron, a microwave, beds, toilet, sink, shower, table &amp; 2 chairs, dresser, end-table, desk &amp; chair.  The heat/a.c. was fine.  I saw an ice machine.  No pool/hot tub.  If I were planning on staying in the room, it would have felt quite small by today's standards.  As a place to sleep, shower, and dress -- and return at night to do it all again, it was sufficient.The breakfast was choice of 2 cereals, English muffins, toast, mini-muffins, or a fresh made waffle with maple-flavor syrup.  They didn't have decaf, but they did have juice, and I happened to have packed a few decaf tea bags of my own.  It wasn't outstanding, but it carried us through to lunch.The Patel family was warm and helpful, very nice people.  We needed 2 rooms and the price was right.  As I said, I'd go back.  We had no issues.  If you need modern, open space and other amenities and want to spend the day at a hotel, you probably should pay more.  This was great as a "home base."MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>First,  I would stay here again.  I was happy with it -- nothing fancy, but it met my needs.That said, if you're looking for modern, all the bells and whistles, go elsewhere.  It was clean - not immaculate, but fully acceptable.  It was earthy colors, somewhat dated, but comfortable.  There was a mini-fridge, cable TV, wireless internet, an iron, a microwave, beds, toilet, sink, shower, table &amp; 2 chairs, dresser, end-table, desk &amp; chair.  The heat/a.c. was fine.  I saw an ice machine.  No pool/hot tub.  If I were planning on staying in the room, it would have felt quite small by today's standards.  As a place to sleep, shower, and dress -- and return at night to do it all again, it was sufficient.The breakfast was choice of 2 cereals, English muffins, toast, mini-muffins, or a fresh made waffle with maple-flavor syrup.  They didn't have decaf, but they did have juice, and I happened to have packed a few decaf tea bags of my own.  It wasn't outstanding, but it carried us through to lunch.The Patel family was warm and helpful, very nice people.  We needed 2 rooms and the price was right.  As I said, I'd go back.  We had no issues.  If you need modern, open space and other amenities and want to spend the day at a hotel, you probably should pay more.  This was great as a "home base."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r194855522-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>194855522</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Greater than i expected.will return</t>
+  </si>
+  <si>
+    <t>Rooms are bigger than hotels ! You get a guest nook area, toilet is separated from sink. Sink lavatory counter is big , you can actually treat is as table . Ref, microwave is provided. You have area to hang your clothes.  Breakfast is provided . Simple cereal , bread, pancake for the guests.Wifi is free. Outside inn are restaurants, chinese food etc... Price- cheap, and compare to same price inns in nearby area, this is better.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Rooms are bigger than hotels ! You get a guest nook area, toilet is separated from sink. Sink lavatory counter is big , you can actually treat is as table . Ref, microwave is provided. You have area to hang your clothes.  Breakfast is provided . Simple cereal , bread, pancake for the guests.Wifi is free. Outside inn are restaurants, chinese food etc... Price- cheap, and compare to same price inns in nearby area, this is better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r175183917-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>175183917</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Convenient to Kaiser Hospital and Hollywood attractions</t>
+  </si>
+  <si>
+    <t>We chose this hotel because we are from out of town and we needed to visit family member inthe hospital.  Reasonable priced, clean remodeled rooms, Better than average continental breakfast.  Staff was very attentive. .Our entry door to the  room was difficult to open and close.  Parking was tight..</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r168807706-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>168807706</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Prompt Service</t>
+  </si>
+  <si>
+    <t>There was a glitch in the air conditioning controls. We tried every possible combination to get the unit to cool without success. Since Glendale was in the middle of a heat wave, and we had a very important meeting the next day, it was imperative that we get quality sleep. We spoke with the manager, and he immediately followed us back to our room and rectified the situation.We could not have been more pleased with his response. This type of service has been sadly lacking in some of the other motels where we stayed. This was a refreshing change.Nice decor, clean. Furniture is somewhat worn, with stuffing on back of desk chair falling out. Good breakfast, love those Belgian waffles. Orange juice a little watered down. We weremost impressed by the response of staff to our AC problem. We would definitely return, andwould definitely refer our friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>There was a glitch in the air conditioning controls. We tried every possible combination to get the unit to cool without success. Since Glendale was in the middle of a heat wave, and we had a very important meeting the next day, it was imperative that we get quality sleep. We spoke with the manager, and he immediately followed us back to our room and rectified the situation.We could not have been more pleased with his response. This type of service has been sadly lacking in some of the other motels where we stayed. This was a refreshing change.Nice decor, clean. Furniture is somewhat worn, with stuffing on back of desk chair falling out. Good breakfast, love those Belgian waffles. Orange juice a little watered down. We weremost impressed by the response of staff to our AC problem. We would definitely return, andwould definitely refer our friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r163766607-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>163766607</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Maintenance needed.</t>
+  </si>
+  <si>
+    <t>Location of this hotel is good. It was fairly quiet when we stayed there. There were several maintenance issues with the room, including leaking sink and non-operational door lock. They are tearing out the pool and spa. The owners were nice.  Continental breakfast was more than adequate. Homemade waffles!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r140200317-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>140200317</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay ---especially for the price</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel from 09/11/12-09/12/12.The room was clean and the staff were very friendly. The location is not to bad. My room did smell of smoke when I entered, but my bf also smokes. So I just burnt a couple of incenses and left the door open for a little while and everything was cool.The bed was comfortable for me and the pillows were soft.  I really liked the big flat screen TV and the large section of cable channels.The breakfast looked nice and the seating area was clean and the other people were very friendly.I would definitely come back again when I am in Glendale.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r128449816-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>128449816</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Not bad for the price.  Service was pleasant,  breakfast was adequate and the facilities were maintained well enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was staying in Glendale for 9 days and this turned out to be a more than adequate home base for my travels. It was nice to have a fridge microwave and iron in the room.  The staff was pleasant and accomodating. The pool was clean and the veranda was a nice place to enjoy my continental breakfast each morning. I would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r127109237-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>127109237</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Functional Economy</t>
+  </si>
+  <si>
+    <t>I just needed a place to crash and that is what I got. It is convenient to highways 2 and 134 and was full on my night. The parking lot is tight.There is a Ralphs just across the street. When I got to the room, the air was stale and funky. I wish I could have left the window open. It had basic necessities. The TV was nice! The TP holder was loose and the box springs of the bed were covered with a cloth that did not look appetizing. Ice is available with your room key. The staff was mixed, some friendly, some not. The breakfast was very basic. Waffles, cereal or a sweet roll. No fruit, yogurt, eggs or other options. The was a pool and jacuzzi, but I saw neither used. In all, it worked because I was not there much, except to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I just needed a place to crash and that is what I got. It is convenient to highways 2 and 134 and was full on my night. The parking lot is tight.There is a Ralphs just across the street. When I got to the room, the air was stale and funky. I wish I could have left the window open. It had basic necessities. The TV was nice! The TP holder was loose and the box springs of the bed were covered with a cloth that did not look appetizing. Ice is available with your room key. The staff was mixed, some friendly, some not. The breakfast was very basic. Waffles, cereal or a sweet roll. No fruit, yogurt, eggs or other options. The was a pool and jacuzzi, but I saw neither used. In all, it worked because I was not there much, except to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r86297513-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>86297513</t>
+  </si>
+  <si>
+    <t>11/07/2010</t>
+  </si>
+  <si>
+    <t>Just Okay, but for $15 more a night we could have had major upgrade elsewhere</t>
+  </si>
+  <si>
+    <t>Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only...Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only thing we can say that worked for us here was the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only...Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only thing we can say that worked for us here was the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r62986856-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>62986856</t>
+  </si>
+  <si>
+    <t>05/01/2010</t>
+  </si>
+  <si>
+    <t>Clean but maintenance needed</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights.  On the plus side the room was quite clean, the (wired) internet access worked well, and the staff was pleasant.  On the minus side there were simple maintenance issues:  alarm clock didn't work, TV was fuzzy, mini-fridge and bathroom fan were extremely loud, one electrical outlet plate protruded from the wall and one of its outlets did not work.  This is an economy motel so I don't expect 5-star standards, but management here needs to address deferred maintenance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r48797763-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>48797763</t>
+  </si>
+  <si>
+    <t>11/08/2009</t>
+  </si>
+  <si>
+    <t>accessible and economical!</t>
+  </si>
+  <si>
+    <t>I've stayed here for 4 nights with my friend, and honestly,  i'm very much satisfied with my stay here.. i haven't tried the swimming pool and jacuzzi because its cold that time..the breakfast is good, you can take many rolls as you want...Overall, my stay here is very good...next time i'll visit California, i'll probably stay there.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r19206568-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>19206568</t>
+  </si>
+  <si>
+    <t>08/21/2008</t>
+  </si>
+  <si>
+    <t>nice, quiet place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. nice, quiet rooms. we had a room with two queen beds, but no full kitchen. rates are fairly low. the hotel has only about 30 or so units, so gets filled up quickly. we noticed that it stayed full while other hotels , across the street, appeared to have a high vacancy rate (based on vehicles in the parking lot). has a nice patio on the upper floor, that gives good views of the hills in the distance. very close to shopping areas, and close to pasadena.likes - quiet, peaceful area, easy access to grocers across the road, easy access to several freeways. moderate rates. a similar unit in extended stay would have cost nearly double.dislikes- we needed a rollaway bed. the one we were given had a terrible sag and was useless. the other two beds in the room were firm enough, but were occupied by other members of my group. no bread slices with breakfast. no eggs either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. nice, quiet rooms. we had a room with two queen beds, but no full kitchen. rates are fairly low. the hotel has only about 30 or so units, so gets filled up quickly. we noticed that it stayed full while other hotels , across the street, appeared to have a high vacancy rate (based on vehicles in the parking lot). has a nice patio on the upper floor, that gives good views of the hills in the distance. very close to shopping areas, and close to pasadena.likes - quiet, peaceful area, easy access to grocers across the road, easy access to several freeways. moderate rates. a similar unit in extended stay would have cost nearly double.dislikes- we needed a rollaway bed. the one we were given had a terrible sag and was useless. the other two beds in the room were firm enough, but were occupied by other members of my group. no bread slices with breakfast. no eggs either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r18764354-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>18764354</t>
+  </si>
+  <si>
+    <t>08/08/2008</t>
+  </si>
+  <si>
+    <t>Good place to stay on a budget!</t>
+  </si>
+  <si>
+    <t>We chose this property based on good reviews both here and on another ratings website.  It's located in town, near a lot of different things.  The management was very kind and accommodated our need to check in early due to tickets to the Warner Brothers VIP Tour (EXCELLENT tour; we recommend it!) at 1:20 in the afternoon.  Everything was fairly new and very clean. The only disappointment was no in-room coffeemaker, but the small continental breakfast had coffee available.  The pool and jacuzzi are small, but we didn't try them out as we were really busy.  If we come up here again (and we probably will), we'll most likely stay here again.  It's only about 10 minutes from most of the Hollywood stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>We chose this property based on good reviews both here and on another ratings website.  It's located in town, near a lot of different things.  The management was very kind and accommodated our need to check in early due to tickets to the Warner Brothers VIP Tour (EXCELLENT tour; we recommend it!) at 1:20 in the afternoon.  Everything was fairly new and very clean. The only disappointment was no in-room coffeemaker, but the small continental breakfast had coffee available.  The pool and jacuzzi are small, but we didn't try them out as we were really busy.  If we come up here again (and we probably will), we'll most likely stay here again.  It's only about 10 minutes from most of the Hollywood stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r17269803-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>17269803</t>
+  </si>
+  <si>
+    <t>06/26/2008</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, pleasant</t>
+  </si>
+  <si>
+    <t>This is my last night at the Econo Lodge, Glendale, CA.  My company wanted to put me in the Hilton. But, I asked for the Econo Lodge after reading tripadvisor's reviews of all the establishments in Glendale. I was surprised to see all the other employees who were to be put up at the Hilton, also chose the Econo Lodge. It is just what I hoped for: very clean. Everything looks brand new: microwave, refrigerator, paint, furniture (nice wood). Bathroom is superclean, hot water comes quickly for the morning shower. Comfortable king size bed, not too hard or soft, lots of lights, good air conditioning. The desk is large, the round dining table seats two. The 25" TV has HBO, but I used my computer to download Netscape's "Watch Instantly" movies through the high speed internet connection that was provided at no cost. Mgmt can provide a Cat 5 cable if you forget yours. Local calls are free.I feel very safe here. It's quiet. Mgmt and crew are pleasant. There's a patio on the upper deck that's nice for eating. The only hiccup I can think of is that one of the electrical outlets didn't work so I had to unplug a lamp for my laptop and, if you eat a big breakfast, the continental won't fill you up: coffee, oj, sweet rolls and English muffins. But the supermarket is across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>This is my last night at the Econo Lodge, Glendale, CA.  My company wanted to put me in the Hilton. But, I asked for the Econo Lodge after reading tripadvisor's reviews of all the establishments in Glendale. I was surprised to see all the other employees who were to be put up at the Hilton, also chose the Econo Lodge. It is just what I hoped for: very clean. Everything looks brand new: microwave, refrigerator, paint, furniture (nice wood). Bathroom is superclean, hot water comes quickly for the morning shower. Comfortable king size bed, not too hard or soft, lots of lights, good air conditioning. The desk is large, the round dining table seats two. The 25" TV has HBO, but I used my computer to download Netscape's "Watch Instantly" movies through the high speed internet connection that was provided at no cost. Mgmt can provide a Cat 5 cable if you forget yours. Local calls are free.I feel very safe here. It's quiet. Mgmt and crew are pleasant. There's a patio on the upper deck that's nice for eating. The only hiccup I can think of is that one of the electrical outlets didn't work so I had to unplug a lamp for my laptop and, if you eat a big breakfast, the continental won't fill you up: coffee, oj, sweet rolls and English muffins. But the supermarket is across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r13270266-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>13270266</t>
+  </si>
+  <si>
+    <t>02/04/2008</t>
+  </si>
+  <si>
+    <t>Good place for the value</t>
+  </si>
+  <si>
+    <t>I had stayed here many years ago- and the same great service remained- Soft Bed. Easy Location- Alot of stores near by (Baklava Factory on the corner- Ralph's Grocery store, fast food places) HWY 2 is a block away and Glendale Galeria and Brand Street too- Glendale Marketplace- The people that manage the place were very sweet and accomadating- The price is low and the quality is high!!</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r6899178-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>6899178</t>
+  </si>
+  <si>
+    <t>03/01/2007</t>
+  </si>
+  <si>
+    <t>Great friendly motel</t>
+  </si>
+  <si>
+    <t>great motel and safe location, walking distance to target,ralphs grocery store,popeyes chicken,across the street from taco azteca giant 1 dollar tacos:),we used this motel as a middle ground for travel to The price is right and jay leno and it was nice, you have a beautiful view of the mountains from the deck upstairs where you can also have your complimentary morning coffee and pastries and juice if you wanted , very clean pool and hot tub which we used and the staff was amazing very friendly we asked for xtra towels and pillows and they were immediatly delivered, there is no iron or ironing board and no coffee in your room but at the gas station across the street its only 1 dollar a cup for good coffee, now about the price is right if you really want to be a contestant show up in line at or before 3 am which we did and barely got in on stand by since he is retiring it was a great place and we had alot of fun and jay leno was great also we saw courtney cox and also you should show up three hours before scheduled to be sure to see the show and dont be surprised when everyone seems short I guess the tv adds pounds and height (no joke).If you have any questions you can email me at staceypoo91@hotmail.com thanks...MoreShow less</t>
+  </si>
+  <si>
+    <t>great motel and safe location, walking distance to target,ralphs grocery store,popeyes chicken,across the street from taco azteca giant 1 dollar tacos:),we used this motel as a middle ground for travel to The price is right and jay leno and it was nice, you have a beautiful view of the mountains from the deck upstairs where you can also have your complimentary morning coffee and pastries and juice if you wanted , very clean pool and hot tub which we used and the staff was amazing very friendly we asked for xtra towels and pillows and they were immediatly delivered, there is no iron or ironing board and no coffee in your room but at the gas station across the street its only 1 dollar a cup for good coffee, now about the price is right if you really want to be a contestant show up in line at or before 3 am which we did and barely got in on stand by since he is retiring it was a great place and we had alot of fun and jay leno was great also we saw courtney cox and also you should show up three hours before scheduled to be sure to see the show and dont be surprised when everyone seems short I guess the tv adds pounds and height (no joke).If you have any questions you can email me at staceypoo91@hotmail.com thanks...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r4122914-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>4122914</t>
+  </si>
+  <si>
+    <t>11/16/2005</t>
+  </si>
+  <si>
+    <t>great place to stay.</t>
+  </si>
+  <si>
+    <t>My family stays at this hotel every year and the owners are friendly and hospitable. We have had no problems here and would recommend it to anyone. It is fairly priced and everyone there is respectful and vefy helpful.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1950,3876 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X35" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>239</v>
+      </c>
+      <c r="X40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>239</v>
+      </c>
+      <c r="X41" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>354</v>
+      </c>
+      <c r="X42" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>354</v>
+      </c>
+      <c r="X43" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>239</v>
+      </c>
+      <c r="X44" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>239</v>
+      </c>
+      <c r="X45" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>239</v>
+      </c>
+      <c r="X46" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>406</v>
+      </c>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>413</v>
+      </c>
+      <c r="J52" t="s">
+        <v>414</v>
+      </c>
+      <c r="K52" t="s">
+        <v>415</v>
+      </c>
+      <c r="L52" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>417</v>
+      </c>
+      <c r="O52" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>436</v>
+      </c>
+      <c r="O55" t="s">
+        <v>163</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>455</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>457</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>458</v>
+      </c>
+      <c r="J59" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" t="s">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s">
+        <v>461</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>462</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>463</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>464</v>
+      </c>
+      <c r="J60" t="s">
+        <v>465</v>
+      </c>
+      <c r="K60" t="s">
+        <v>466</v>
+      </c>
+      <c r="L60" t="s">
+        <v>467</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>469</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>470</v>
+      </c>
+      <c r="J61" t="s">
+        <v>471</v>
+      </c>
+      <c r="K61" t="s">
+        <v>472</v>
+      </c>
+      <c r="L61" t="s">
+        <v>473</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The hotel is kinda hard to get into do to traffic, but other wise is really nice for a budget hotel. The room was clean. Only bad thing is the beds were rather hard. The breakfast was all various forms of carbs. Nick at the front desk was very helpful.More</t>
   </si>
   <si>
+    <t>MyHumbleOpinion</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552356707-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Booked this hotel as an alternative to much more expensive options in Pasadena for our Rose Bowl Parade/Game adventure.  The area seemed very safe and it is a very quiet hotel with comfortable beds.  The staff was helpful and friendly and the rooms were clean.  Only criticism of the accommodations would be the phone had a light that flashed non stop and when I called the front desk they said to unplug it as they came that way from the factory and they didn't know how to turn it off.  Also our fridge was unplugged and not working and even after we plugged it in it never really got cold.  Another plus to the hotel is the grocery store across the street.More</t>
   </si>
   <si>
+    <t>drrkbrnng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552122608-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>We decided that this Econo Lodge offered the best value for our Los Angeles area stay, and while the Lodge did not necessarily disappoint, their simply was not much good about it. It was merely sufficient, providing the basic needs for budget travelers. The TV was small, the breakfast offerings meager (although it was nice that there was breakfast at all), and, most egregiously, the bathroom was quite dirty. You get what you pay for. As long as you do not expect too much, Econo Lodge can be a viable option, but it would not be my top choice, even on a tight budget.More</t>
   </si>
   <si>
+    <t>Kel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r534768921-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>This place was clean and cozy.  The service was great too.  The price was good, the rooms clean and conveniently  located 2 blocks from Starbucks   we will stay here again if we are in the area.  We visited Universal Studios and used Umber,  it was under $13 each way, using pool, but we were alone in the cars.More</t>
   </si>
   <si>
+    <t>TahoeFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r521137126-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>This hotel is in a convenient location on Colorado Boulevard near freeways and half way between downtown Glendale and Pasadena.  When we were there the place was full and there was a shortage of parking, and some guests needed to park on the busy boulevard.  The room was clean but dated, and it needed some minor repairs. Overall, not bad for a basic 1970s era hotel.  No pool, no elevator, no extras.  The breakfast was okay, but minimal.More</t>
   </si>
   <si>
+    <t>Steven D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r513000174-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>I thoroughly enjoyed my stay at the Econo Lodge in  Glendale. Check In was super easy and I was recognized as a Choice rewards customer. The room was spotless and very tastefully decorated. It was very clean and completely as described. My only problem was the TV remote did not work, when I mentioned it the next morning they were apologetic and said if I had let them know earlier they would have fixed it. The grounds were very clean and a nice patio table out on the second floor.  The table was especially nice as I purchased take out from a Vietnamese place a block away and had a nice picnic.I would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>cookaborough</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r488032105-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>We chose here as it seemed good value for money and its location to Universal Studios and Warner Brothers Studios. It ticked the boxes of all our requirements, the bed was extremely comfortable which was awesome after a long day at the Theme parks and tours. Breakfast included was an added bonus. Would stay here again. Good little asian takeaway/restaurant directly across the road.More</t>
   </si>
   <si>
+    <t>bluebonzoid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r486130506-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>We stayed here for an economical place near Universal Studios.  The hotel is older but still nice for the price. The room was comfortable and clean, although it showed its age in places. The breakfast wasn't a big spread,but took care of our needs. More</t>
   </si>
   <si>
+    <t>Saitan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r476143760-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -408,6 +435,9 @@
     <t>I didn't expect this hotel to be so good. The room I got was big. It was just on the lobby so had lot of open space on 2nd floor.   I would recommend this hotel. Only disadvantage was the breakfast.  Choice was very limited and I didn't eat there as only few pancakes and nothing else at that time.  Can't complain about that as we paid very less. But definitely it is a big issue when the same room price goes to two hundred bucks for the weekend. Rooms were very clean, quiet. Friendly staff. Free parking.More</t>
   </si>
   <si>
+    <t>Fab I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r457098026-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -438,6 +468,9 @@
     <t>I have stayed at Econo Lodge for one week and did not have a nice stay.The 'continental' breakfast includes coffee, orange juice, waffles, biscuits and that's about it.The rooms are clean but very old and not comfortable. Overall I cannot recommend this hotel.More</t>
   </si>
   <si>
+    <t>bsimonis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r445645665-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>I checked in late at the Econo Lodge on Colorado in Burbank. A call at 8PM to let them know that I would be there by 11 was - I felt - a necessary courtesy. When I arrived at 11, check-in was quick, my room was ready, and I had a great night's sleep. Even though it is on busy Colorado, it was quiet - other than a later arriving guest bumping their rollaboard up the stairs. (People, have some common courtesy!) A simple breakfast in the lobby the next morning included bake-it-yourself waffles, cereal, toast and some fruit. Great location, efficient staff, and clean - must have's at the end of a business day.More</t>
   </si>
   <si>
+    <t>Motik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r443284944-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -489,6 +525,9 @@
     <t>I was going to give a higher rating, but a roach just ran across my room. Other than that, the room is clean and large. It's pretty basic, but if you don't need drawers (3 small drawers) or care that your closet is a bar in the sink area, it's fine. It was what I expected for the price, except for the roach.More</t>
   </si>
   <si>
+    <t>Moni F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r433276534-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -519,6 +558,9 @@
     <t>I'd say this place was pretty legit if you're looking for a budget stay. Came here because we were going to Universal HHN. It's about a 10min drive to Universal city walk. They have comfy beds, clean rooms/bathroom. They offer a small breakfast in the morning. My only complaint was that you can hear the busy street in the mornings and nights.More</t>
   </si>
   <si>
+    <t>mlbmickey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r431651908-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -543,6 +585,9 @@
     <t>Finding a good hotel room in Glendale on just about any weekend seems to be a challenge in the economy rate.  We had a nice room with a living room with a dining table and a bedroom with two queen beds.  It is not the most modern, but it is clean, and had a decent breakfast in the morning (although a bit crowded).  The staff are all friendly, there is recycling, and it was nice to be able to close the bedroom door so I could sleep later than the kids.  There is no pool, off-street parking is free, ice and soda machines, laundry and lots of restaurants within walking distance.  We were in a room right next to Colorado Street, but it was surprisingly quiet.  2 floors and no elevator in case that is an issue.  Part of Choice Hotels.More</t>
   </si>
   <si>
+    <t>Clubdeluxe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r430298109-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -561,6 +606,9 @@
     <t>We chose this Econo Lodge based on other reviews on TripAdvisor.  I hadn't stayed in an Econo Lodge before, but was pleasantly surprised when we got here. The room was not fancy, but everything was immaculately clean. The beds are very comfortable, and there are plenty of outlets near them. Wifi is decent too. Staff is very pleasant and accommodating. This is a small hotel so there aren't a lot of amenities. For me that was a plus as it was easy to come and go, easy parking, etc. I would stay here again. More</t>
   </si>
   <si>
+    <t>naturelover718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r420963418-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>We stayed here for a few nights. Even though it was nothing fancy, it was clean and had lots of things you dont normally find in a hotel at this price- fridge, microwave, iron, hairdryer, ice machine and breakfast. It was close to Hollywood and Universal and close enough to restaurants that we walked to many places to eat. We had no issues with parking even though the lot was small. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>MGJUN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409603985-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>This motel is a hidden jewel in the hustle - bustle of Glendale. Granted it is an older motel but very clean and comfortable.  The  entry/parking area is tucked away from the street and lined with potted, flowering plants. There is also a balcony, sitting area which is very pleasant.  The staff is efficient, friendly and always ready to assist.  There is a contential breakfast available but plenty of food offerings within a short walk.  It's close to many notable tourist destinations but a quiet respite for travelers. The price is modest for the area but a great place to stay.  I highly recommend it.More</t>
   </si>
   <si>
+    <t>move360</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409254320-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -618,6 +672,9 @@
     <t>Standard motel.Room was quite large, but with old carpet and musty smell.Had a fridge - which was good. There is a supermarket across the street.Breakfast was poor - just waffles, some pastries, and oatmeal.A bit overpriced, but for the area you this is about as cheap as it gets without it being a dump.More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r395162765-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>We stayed here 2 nights with another couple on our weeklong trip to California.  The room was nice enough, clean but average.  There are only three choices for restaurants within walking distance -- two Chinese and one Italian.  There is a pretty large supermarket across the street, which was a convenience for restocking for our day trips.The continental breakfast was somewhat limited.  A waffle machine, but no eggs or anything with protein, even peanut butter would have been welcome.  The breakfast room is small, so seating is limited.There is no elevator, so if your room is on the 2nd level, you have to carry your bags up the stairs. Your room key card is needed in order to get ice from the machine. I had not seen that before, suggesting that they might have had problems from the neighborhood.We paid about $95/night including taxes. It wasn't the lowest rate we got on our weeklong trip, but it wasn't the highest either.More</t>
   </si>
   <si>
+    <t>Chellyj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r394881421-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>Located near downtown area, close to major malls, movies and freeways.  The rooms were clean and quiet, everything worked well.  Staff were very friendly and knowledgeable.  I would stay here again, location was greatMore</t>
   </si>
   <si>
+    <t>Kathleen V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r392277437-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>This was my first visit to the Glendale Econo Lodge, and I was very pleased indeed. Yes, the decor and the fixtures are a little dated, but it's very clean, very convenient and very comfortable. The front desk staff couldn't be nicer or more accommodating. And I was surprised that the breakfast offerings were much better than those at the Glendale Vagabond Inn. They even have tables! And the rates were absolutely unbeatable. I will return.More</t>
   </si>
   <si>
+    <t>CanyonTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r376900200-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -699,6 +765,9 @@
     <t>Rooms and bathroom are small, as is the Dining area.  Rooms were clean and in good condition.  Breakfast items were typical fare, but everything was neat and clean.  No pool.  Check-in was quick.  WIFI worked well.More</t>
   </si>
   <si>
+    <t>Mark H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r373847289-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -717,6 +786,9 @@
     <t>We rented 3 rooms here for a weekend. Our son was getting married in Eagle Rock and this motel was close to all of the activity locations. This is your typical older motel property but as others have mentioned the beds were very comfortable and the overall property is kept clean. The free breakfast is your standard fare in a small area in the motel lobby. Everything but the beds and TV's in these rooms is old and could use some updating but as I stated above the rooms were clean and the price is a bargain compared to the Best Western down the street.More</t>
   </si>
   <si>
+    <t>Glen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r363222106-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
     <t>Our primary focus for staying here was being close to universal and Hollywood for sightseeing.  Both were within a 15-20 min drive.The room was a single queen and met our needs. Was nice and clean. The only knock would be the AC unit was a little loud, but on our trip it seems to be the norm. Big bathroom ,but I think it was the handicap roomBreakfast was good, they had  the basic stuff (muffins/ cereal / yogurt/ juices) and waffles, which was good for us.Over we had good value for what we got and the proximity to the things we wanted to do.More</t>
   </si>
   <si>
+    <t>jlheidenrich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r350391055-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -765,6 +840,9 @@
     <t>Econo Lodge is a nice place with recently updated rooms.  The rooms have a refrigerator, microwave ovens, and appear clean.The area has several restaurants, is across the street from Ralph's Market, and a nice area to walk during the dayContinental breakfast is great with lots of choices including a waffle iron and batter for making fresh waffles. The breakfast area is bright and uplifting in the morning.Econo Lodge in Glendale is a treat for lodgingMore</t>
   </si>
   <si>
+    <t>Lise A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r347958764-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -783,6 +861,9 @@
     <t>Stayed in Feb. 2016 for 3 nights, room 218. The photos on their website are almost the same except there is no table in a room with a king bed. Clean rooms.When I went to take a bath the 2nd night, there was cold and dirty water in the tub. I called the front desk, they came to see and said they could not do anything and to wait for the next day. It took 1 hour to drain. So no shower or bath even if it had been 85 degrees during the day. The plumber finally came at 3hPM and they told us to move all our stuff to room 217 as the overflow in the bathtub came from an other room.They did not offer a discount or partial refund for changing rooms and for their plumbing problems which force us not to take a bath or shower for 1 night!Breakfast o.k. no fruits.More</t>
   </si>
   <si>
+    <t>ritesdfred</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r344882944-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -801,6 +882,9 @@
     <t>I have stayed in a few different motels in the Pasadena, Eagle Rock, Glendale area over the past week and this is by far my favorite!  I think I got the room that is pictured on the website.  It is a huge double queen room.  The decor is well appointed.  The furniture is very new and modern.  The room is clean and comfortable.  The floors, beds, linens and towels all seem to be very clean.  I am very very happy with the accommodations and will definitely consider extending my stay here or returning in the future.More</t>
   </si>
   <si>
+    <t>lchicagolaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r340715451-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -822,6 +906,9 @@
     <t>It is a 1970's version of a motel.  You can never open your curtains because people will always be standing outside your window smoking.  The breakfast is just bread.  The toaster only half works.  If they run out of anything, nobody replaces it.  The location is good.  We never felt unsafe.More</t>
   </si>
   <si>
+    <t>Scott G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r321487486-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -843,6 +930,9 @@
     <t>We booked a room at this hotel at the last minute and based our decision on previous reviews. On arrival, the clerk was super friendly and had everything ready for us. A second floor room was waiting for us. When I asked to be moved to a ground floor room, it was no problem. She changed our keys and wished us a good evening. The room was clean, and smelled clean, too. If you were to look too closely, the age of the building becomes obvious. However, large flat screen tv, USB power outlets built into the wall outlets were nice. Decent bathroom, but more water pressure would have been nice. The bed was a little springy...We left early and did not see what, if any, breakfast service was offered. All in all, it was a comfortable stay, but what impressed me the most, was that we stayed on a Friday night with a football game going on at the school directly behind the motel and didn't hear a thing inside the room.More</t>
   </si>
   <si>
+    <t>denverjjm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r320501186-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -858,6 +948,9 @@
     <t>I needed a budget hotel in the Glendale area and was pretty leery of most of the options. This hotel had good reviews so I went there and found it to be great value. Clean, comfortable, good parking, and really friendly service. I will return.</t>
   </si>
   <si>
+    <t>Caroline A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r316452793-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -876,6 +969,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r306441816-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -903,6 +999,9 @@
     <t>Room was clean the WIFI was sloooow and you couldn't use the lobby computer after 9:30 pm or before 6:am Breakfast was small and skimpy not the usual complementary breakfast I usually have had at other lodges I have stayed at. I went out to a locale restaurant for a decent breakfast eggs toast milk coffee sausage They offered make your own waffles warm milk orange juice stored cereal fruit loops I think. I passed Coffee and a dispenser of milk... The people were friendly and courteous. Altho I may have been charged twice for my room Once with my Master Card then again with my Visa at check in time... Only when I can check with my account statements at the end of the billing cycle will I be sure... I would stay again I liked the staff.More</t>
   </si>
   <si>
+    <t>Michael N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r298416187-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -921,6 +1020,9 @@
     <t>AC was very loud, bed was not clean or confirmable at all. I went to this place after looking at the reviews of this hotel and the other hotels in the same area. Honestly this was the best of the worst based on the reviews. But I just wish I traveled a little longer to a better hotelMore</t>
   </si>
   <si>
+    <t>Kirk A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r278881426-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -948,6 +1050,9 @@
     <t>It's been since 2014 since I did my first review. I did it because I saw online booking companies rate it as a 2 star. After my first stay there, I couldn't believe they rated it only as a 2 star hotel. I just stayed 3 days during the Memorial Day Holiday, and I loved it as much then as the first time I stayed there. I had a double room; beautiful; clean; spacious; quiet; microwave; refrigerator; large screen tv; wifi. The rooms that I have stayed in have all been really clean. Bedspreads and sheets are clean. You will be really satisfied if you stay here. In my opinion, it's a 5 star compared to some of the other places I have stayed, including Ramada, Hilton. I found Econo Lodge much better than those two.They have a fairly nice sized lobby where they have a mini breakfast; coffee; Danish; waffles, etc. Plenty of room, tables and chairs. They even have a sun deck on the second floor. You can sit at a table and read a book or lie down and sun yourself.I don't know what else to say. This is a really great place to stay. It is what it is.Kirk :)More</t>
   </si>
   <si>
+    <t>mariabS7141JE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r266900957-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -967,6 +1072,9 @@
   </si>
   <si>
     <t>My daughter felt it was a good place in between the Dodger Stadium and Universal Studios.  Breakfast was adequate and the breakfast area very clean. The rooms were adequate.  Everything in working order. Plumbing good and I appreciated the hot water when I took a shower. Parking area very well lit. A few local restaurants and a grocery store within walking distance. Staff not rude but approachable. More</t>
+  </si>
+  <si>
+    <t>Chris T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r264124092-Econo_Lodge-Glendale_California.html</t>
@@ -1010,6 +1118,9 @@
     <t>I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.
 These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.
 There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have...I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have online showing the rooms, etc. -- they are just as nice when you show up. Absolutely beautiful rooms. Clean as they can be. Wifi works perfectly. I honestly can't find any reason to give this less than 5 stars. I shook the hand of the owner before I left and said "thank you." He was all smiles. :)More</t>
+  </si>
+  <si>
+    <t>kellery</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r241967816-Econo_Lodge-Glendale_California.html</t>
@@ -1035,6 +1146,9 @@
 The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see...This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see hotels or motels as a place to lay your head, you may want to consider this place.More</t>
   </si>
   <si>
+    <t>ritatravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r240968900-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1053,6 +1167,9 @@
     <t>We flew into LAX and weren't sure of the area, so chose this location...helpful staff; clean room; affordable; nice breakfast choices. Also, this was convenient to Griffith Park, Getty Museum and Villa. We also learned that staying "outside" of LA doesn't' mean less traffic! But having a GPS saves time and marriages!!More</t>
   </si>
   <si>
+    <t>Ineke_Belgium</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r229776628-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1074,6 +1191,9 @@
     <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor.Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.More</t>
   </si>
   <si>
+    <t>Milhan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222284708-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1101,6 +1221,9 @@
     <t>We just returned from a 6 night stay at the Econo Lodge in Glendale, and we were very pleased with the experience. While a budget hotel, it felt "richer"  than some other places that I have stayed in a similar price range. The hotel is clean and comfortable, large rooms, small but adequate breakfast, and the hotel staff are very friendly. Nice little patio on the second level, good place to have your tea or coffee in the morning. The location of the hotel is terrific. Glendale is a lovely area. You have supermarkets, restaurants and the Glendale Galleria right on the same street. Close to Hollywood, the Sunset Strip, Burbank, Studio City, and easy to get to the beaches and a 45 minute drive to Disneyland.Should we find ourselves in Los Angeles again, we would definitely consider staying here.More</t>
   </si>
   <si>
+    <t>PPorter A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222223972-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1116,6 +1239,9 @@
     <t>Here for family event, was disappointed we weren't staying in a trendy LA hotel, but this ended up being a charming motel with nice owners, great location, amazing rooms.  Would stay here again, and recommend it to anyone, especially on a budget.More</t>
   </si>
   <si>
+    <t>margotswann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r205391144-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1137,6 +1263,9 @@
     <t>My husband and I stayed three nights at this Econo Lodge.  We were delightfully surprised at the amenities and service:  hair dryer, soaps, shampoo, etc, iron &amp; full ironing board, free WiFi and parking, plus a large screen TV with cable.  And then there was the clever breakfast which included juices, coffee &amp; tea fixings, cereals, fresh baked goods with a toaster, a stack of current "USA Today"s, and make yourself Belgian waffles with real butter.  In addition to the small dining area there is a roof-top patio.The rooms were small but did have a small table and chairs - the "suites" were more ample.  Only one car per room was permitted.  There were lots of flowers in the limited space near the walkway, many in containers.Over all this is a very acceptable economy option for Glendale.More</t>
   </si>
   <si>
+    <t>1DerryTreeHugger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r200357179-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1158,6 +1287,9 @@
     <t>First,  I would stay here again.  I was happy with it -- nothing fancy, but it met my needs.That said, if you're looking for modern, all the bells and whistles, go elsewhere.  It was clean - not immaculate, but fully acceptable.  It was earthy colors, somewhat dated, but comfortable.  There was a mini-fridge, cable TV, wireless internet, an iron, a microwave, beds, toilet, sink, shower, table &amp; 2 chairs, dresser, end-table, desk &amp; chair.  The heat/a.c. was fine.  I saw an ice machine.  No pool/hot tub.  If I were planning on staying in the room, it would have felt quite small by today's standards.  As a place to sleep, shower, and dress -- and return at night to do it all again, it was sufficient.The breakfast was choice of 2 cereals, English muffins, toast, mini-muffins, or a fresh made waffle with maple-flavor syrup.  They didn't have decaf, but they did have juice, and I happened to have packed a few decaf tea bags of my own.  It wasn't outstanding, but it carried us through to lunch.The Patel family was warm and helpful, very nice people.  We needed 2 rooms and the price was right.  As I said, I'd go back.  We had no issues.  If you need modern, open space and other amenities and want to spend the day at a hotel, you probably should pay more.  This was great as a "home base."More</t>
   </si>
   <si>
+    <t>manilabelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r194855522-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1179,6 +1311,9 @@
     <t>Rooms are bigger than hotels ! You get a guest nook area, toilet is separated from sink. Sink lavatory counter is big , you can actually treat is as table . Ref, microwave is provided. You have area to hang your clothes.  Breakfast is provided . Simple cereal , bread, pancake for the guests.Wifi is free. Outside inn are restaurants, chinese food etc... Price- cheap, and compare to same price inns in nearby area, this is better.More</t>
   </si>
   <si>
+    <t>Ann359</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r175183917-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1197,6 +1332,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>KizzysMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r168807706-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1218,6 +1356,9 @@
     <t>There was a glitch in the air conditioning controls. We tried every possible combination to get the unit to cool without success. Since Glendale was in the middle of a heat wave, and we had a very important meeting the next day, it was imperative that we get quality sleep. We spoke with the manager, and he immediately followed us back to our room and rectified the situation.We could not have been more pleased with his response. This type of service has been sadly lacking in some of the other motels where we stayed. This was a refreshing change.Nice decor, clean. Furniture is somewhat worn, with stuffing on back of desk chair falling out. Good breakfast, love those Belgian waffles. Orange juice a little watered down. We weremost impressed by the response of staff to our AC problem. We would definitely return, andwould definitely refer our friends.More</t>
   </si>
   <si>
+    <t>AnneMelodini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r163766607-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1233,6 +1374,9 @@
     <t>Location of this hotel is good. It was fairly quiet when we stayed there. There were several maintenance issues with the room, including leaking sink and non-operational door lock. They are tearing out the pool and spa. The owners were nice.  Continental breakfast was more than adequate. Homemade waffles!</t>
   </si>
   <si>
+    <t>Sugamyers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r140200317-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1251,6 +1395,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>BBfromCT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r128449816-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1266,6 +1413,9 @@
     <t xml:space="preserve">I was staying in Glendale for 9 days and this turned out to be a more than adequate home base for my travels. It was nice to have a fridge microwave and iron in the room.  The staff was pleasant and accomodating. The pool was clean and the veranda was a nice place to enjoy my continental breakfast each morning. I would stay here again. </t>
   </si>
   <si>
+    <t>Indi237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r127109237-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1287,6 +1437,9 @@
     <t>I just needed a place to crash and that is what I got. It is convenient to highways 2 and 134 and was full on my night. The parking lot is tight.There is a Ralphs just across the street. When I got to the room, the air was stale and funky. I wish I could have left the window open. It had basic necessities. The TV was nice! The TP holder was loose and the box springs of the bed were covered with a cloth that did not look appetizing. Ice is available with your room key. The staff was mixed, some friendly, some not. The breakfast was very basic. Waffles, cereal or a sweet roll. No fruit, yogurt, eggs or other options. The was a pool and jacuzzi, but I saw neither used. In all, it worked because I was not there much, except to sleep.More</t>
   </si>
   <si>
+    <t>INEEDAGOODNIGHTSREST</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r86297513-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1308,6 +1461,9 @@
     <t>Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only...Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only thing we can say that worked for us here was the location.More</t>
   </si>
   <si>
+    <t>alanwbaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r62986856-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1323,6 +1479,9 @@
     <t>We stayed here for two nights.  On the plus side the room was quite clean, the (wired) internet access worked well, and the staff was pleasant.  On the minus side there were simple maintenance issues:  alarm clock didn't work, TV was fuzzy, mini-fridge and bathroom fan were extremely loud, one electrical outlet plate protruded from the wall and one of its outlets did not work.  This is an economy motel so I don't expect 5-star standards, but management here needs to address deferred maintenance.</t>
   </si>
   <si>
+    <t>pinktrollManila</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r48797763-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1341,6 +1500,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>SunnyvaleBayareadude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r19206568-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1359,6 +1521,9 @@
     <t>Stayed here for 4 nights. nice, quiet rooms. we had a room with two queen beds, but no full kitchen. rates are fairly low. the hotel has only about 30 or so units, so gets filled up quickly. we noticed that it stayed full while other hotels , across the street, appeared to have a high vacancy rate (based on vehicles in the parking lot). has a nice patio on the upper floor, that gives good views of the hills in the distance. very close to shopping areas, and close to pasadena.likes - quiet, peaceful area, easy access to grocers across the road, easy access to several freeways. moderate rates. a similar unit in extended stay would have cost nearly double.dislikes- we needed a rollaway bed. the one we were given had a terrible sag and was useless. the other two beds in the room were firm enough, but were occupied by other members of my group. no bread slices with breakfast. no eggs either.More</t>
   </si>
   <si>
+    <t>DonnaR57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r18764354-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1380,6 +1545,9 @@
     <t>We chose this property based on good reviews both here and on another ratings website.  It's located in town, near a lot of different things.  The management was very kind and accommodated our need to check in early due to tickets to the Warner Brothers VIP Tour (EXCELLENT tour; we recommend it!) at 1:20 in the afternoon.  Everything was fairly new and very clean. The only disappointment was no in-room coffeemaker, but the small continental breakfast had coffee available.  The pool and jacuzzi are small, but we didn't try them out as we were really busy.  If we come up here again (and we probably will), we'll most likely stay here again.  It's only about 10 minutes from most of the Hollywood stuff.More</t>
   </si>
   <si>
+    <t>NtecInTraining</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r17269803-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1401,6 +1569,9 @@
     <t>This is my last night at the Econo Lodge, Glendale, CA.  My company wanted to put me in the Hilton. But, I asked for the Econo Lodge after reading tripadvisor's reviews of all the establishments in Glendale. I was surprised to see all the other employees who were to be put up at the Hilton, also chose the Econo Lodge. It is just what I hoped for: very clean. Everything looks brand new: microwave, refrigerator, paint, furniture (nice wood). Bathroom is superclean, hot water comes quickly for the morning shower. Comfortable king size bed, not too hard or soft, lots of lights, good air conditioning. The desk is large, the round dining table seats two. The 25" TV has HBO, but I used my computer to download Netscape's "Watch Instantly" movies through the high speed internet connection that was provided at no cost. Mgmt can provide a Cat 5 cable if you forget yours. Local calls are free.I feel very safe here. It's quiet. Mgmt and crew are pleasant. There's a patio on the upper deck that's nice for eating. The only hiccup I can think of is that one of the electrical outlets didn't work so I had to unplug a lamp for my laptop and, if you eat a big breakfast, the continental won't fill you up: coffee, oj, sweet rolls and English muffins. But the supermarket is across the street.More</t>
   </si>
   <si>
+    <t>travelmom48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r13270266-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1417,6 +1588,9 @@
   </si>
   <si>
     <t>February 2008</t>
+  </si>
+  <si>
+    <t>luckypriceisright</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r6899178-Econo_Lodge-Glendale_California.html</t>
@@ -1954,43 +2128,47 @@
       <c r="A2" t="n">
         <v>19542</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2002,56 +2180,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19542</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>142898</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2069,56 +2251,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19542</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>142899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2136,56 +2322,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19542</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>142900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2201,56 +2391,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19542</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>142901</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2268,56 +2462,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19542</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>32369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2335,56 +2533,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19542</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>128151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2400,56 +2602,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19542</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>17347</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2461,56 +2667,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19542</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>142902</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2528,56 +2738,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19542</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>142903</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2589,56 +2803,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19542</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>142904</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2656,56 +2874,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19542</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>142905</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2717,56 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19542</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>142906</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2784,56 +3010,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19542</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>142907</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2849,56 +3079,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19542</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>142908</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>175</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="O16" t="s">
         <v>176</v>
-      </c>
-      <c r="J16" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16" t="s">
-        <v>163</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2910,56 +3144,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19542</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>142909</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2971,56 +3209,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19542</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>142910</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3032,56 +3274,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19542</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>142911</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3099,56 +3345,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19542</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3166,47 +3416,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19542</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>142912</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -3223,56 +3477,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19542</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>8040</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>216</v>
       </c>
-      <c r="K22" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>198</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3290,56 +3548,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19542</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>142913</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3357,56 +3619,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19542</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2915</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3424,56 +3690,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19542</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>142914</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3485,56 +3755,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19542</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>142915</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3546,56 +3820,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19542</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>16552</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3613,56 +3891,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19542</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>142916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3680,56 +3962,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19542</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>99505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3745,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19542</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>18686</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3812,50 +4102,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19542</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>142917</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3875,50 +4169,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19542</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>142918</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3938,50 +4236,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>19542</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3999,56 +4301,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>19542</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>18121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4064,56 +4370,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>19542</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>142919</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4131,56 +4441,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>19542</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>142920</v>
+      </c>
+      <c r="C36" t="s">
+        <v>344</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4192,56 +4506,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>19542</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>4094</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4255,50 +4573,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>19542</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>142918</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4318,50 +4640,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>19542</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>142921</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4381,50 +4707,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>19542</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>142922</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4442,56 +4772,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X40" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>19542</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>142923</v>
+      </c>
+      <c r="C41" t="s">
+        <v>379</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4503,56 +4837,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X41" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>19542</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>142924</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4570,56 +4908,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>19542</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>142925</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4637,56 +4979,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>19542</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>142926</v>
+      </c>
+      <c r="C44" t="s">
+        <v>403</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4708,56 +5054,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X44" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y44" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>19542</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>142927</v>
+      </c>
+      <c r="C45" t="s">
+        <v>411</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4779,56 +5129,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X45" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>19542</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>142928</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4850,56 +5204,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X46" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>19542</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>142929</v>
+      </c>
+      <c r="C47" t="s">
+        <v>427</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4923,50 +5281,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>19542</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>142930</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4990,41 +5352,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>19542</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>142931</v>
+      </c>
+      <c r="C49" t="s">
+        <v>442</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -5053,50 +5419,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>19542</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>142932</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="K50" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="O50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5120,41 +5490,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>19542</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>142933</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -5183,50 +5557,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>19542</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>142934</v>
+      </c>
+      <c r="C52" t="s">
+        <v>461</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="O52" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5250,50 +5628,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>19542</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>142935</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5317,41 +5699,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>19542</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>142936</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5380,50 +5766,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>19542</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>142937</v>
+      </c>
+      <c r="C55" t="s">
+        <v>483</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="O55" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5447,41 +5837,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>19542</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>142938</v>
+      </c>
+      <c r="C56" t="s">
+        <v>490</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="K56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5510,50 +5904,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>19542</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>142939</v>
+      </c>
+      <c r="C57" t="s">
+        <v>497</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5577,50 +5975,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>19542</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>142940</v>
+      </c>
+      <c r="C58" t="s">
+        <v>505</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="O58" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5644,50 +6046,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>19542</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>142941</v>
+      </c>
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="J59" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="O59" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5711,41 +6117,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>19542</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>142942</v>
+      </c>
+      <c r="C60" t="s">
+        <v>520</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="J60" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5764,41 +6174,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>19542</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="J61" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="K61" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="L61" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -5817,7 +6231,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
@@ -2194,7 +2194,7 @@
         <v>19542</v>
       </c>
       <c r="B3" t="n">
-        <v>142898</v>
+        <v>174109</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2265,7 +2265,7 @@
         <v>19542</v>
       </c>
       <c r="B4" t="n">
-        <v>142899</v>
+        <v>174110</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -2336,7 +2336,7 @@
         <v>19542</v>
       </c>
       <c r="B5" t="n">
-        <v>142900</v>
+        <v>174111</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -2405,7 +2405,7 @@
         <v>19542</v>
       </c>
       <c r="B6" t="n">
-        <v>142901</v>
+        <v>174112</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -2681,7 +2681,7 @@
         <v>19542</v>
       </c>
       <c r="B10" t="n">
-        <v>142902</v>
+        <v>174113</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -2752,7 +2752,7 @@
         <v>19542</v>
       </c>
       <c r="B11" t="n">
-        <v>142903</v>
+        <v>174114</v>
       </c>
       <c r="C11" t="s">
         <v>139</v>
@@ -2817,7 +2817,7 @@
         <v>19542</v>
       </c>
       <c r="B12" t="n">
-        <v>142904</v>
+        <v>174115</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
@@ -2888,7 +2888,7 @@
         <v>19542</v>
       </c>
       <c r="B13" t="n">
-        <v>142905</v>
+        <v>174116</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
@@ -2953,7 +2953,7 @@
         <v>19542</v>
       </c>
       <c r="B14" t="n">
-        <v>142906</v>
+        <v>174117</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
@@ -3024,7 +3024,7 @@
         <v>19542</v>
       </c>
       <c r="B15" t="n">
-        <v>142907</v>
+        <v>174118</v>
       </c>
       <c r="C15" t="s">
         <v>180</v>
@@ -3093,7 +3093,7 @@
         <v>19542</v>
       </c>
       <c r="B16" t="n">
-        <v>142908</v>
+        <v>174119</v>
       </c>
       <c r="C16" t="s">
         <v>189</v>
@@ -3158,7 +3158,7 @@
         <v>19542</v>
       </c>
       <c r="B17" t="n">
-        <v>142909</v>
+        <v>174120</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -3223,7 +3223,7 @@
         <v>19542</v>
       </c>
       <c r="B18" t="n">
-        <v>142910</v>
+        <v>174121</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -3288,7 +3288,7 @@
         <v>19542</v>
       </c>
       <c r="B19" t="n">
-        <v>142911</v>
+        <v>174122</v>
       </c>
       <c r="C19" t="s">
         <v>211</v>
@@ -3430,7 +3430,7 @@
         <v>19542</v>
       </c>
       <c r="B21" t="n">
-        <v>142912</v>
+        <v>174123</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
@@ -3562,7 +3562,7 @@
         <v>19542</v>
       </c>
       <c r="B23" t="n">
-        <v>142913</v>
+        <v>174124</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -3704,7 +3704,7 @@
         <v>19542</v>
       </c>
       <c r="B25" t="n">
-        <v>142914</v>
+        <v>174125</v>
       </c>
       <c r="C25" t="s">
         <v>256</v>
@@ -3769,7 +3769,7 @@
         <v>19542</v>
       </c>
       <c r="B26" t="n">
-        <v>142915</v>
+        <v>174126</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
@@ -3905,7 +3905,7 @@
         <v>19542</v>
       </c>
       <c r="B28" t="n">
-        <v>142916</v>
+        <v>174127</v>
       </c>
       <c r="C28" t="s">
         <v>281</v>
@@ -4110,7 +4110,7 @@
         <v>19542</v>
       </c>
       <c r="B31" t="n">
-        <v>142917</v>
+        <v>174128</v>
       </c>
       <c r="C31" t="s">
         <v>304</v>
@@ -4177,7 +4177,7 @@
         <v>19542</v>
       </c>
       <c r="B32" t="n">
-        <v>142918</v>
+        <v>174129</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -4384,7 +4384,7 @@
         <v>19542</v>
       </c>
       <c r="B35" t="n">
-        <v>142919</v>
+        <v>142910</v>
       </c>
       <c r="C35" t="s">
         <v>334</v>
@@ -4455,7 +4455,7 @@
         <v>19542</v>
       </c>
       <c r="B36" t="n">
-        <v>142920</v>
+        <v>174130</v>
       </c>
       <c r="C36" t="s">
         <v>344</v>
@@ -4581,7 +4581,7 @@
         <v>19542</v>
       </c>
       <c r="B38" t="n">
-        <v>142918</v>
+        <v>142910</v>
       </c>
       <c r="C38" t="s">
         <v>334</v>
@@ -4648,7 +4648,7 @@
         <v>19542</v>
       </c>
       <c r="B39" t="n">
-        <v>142921</v>
+        <v>174131</v>
       </c>
       <c r="C39" t="s">
         <v>366</v>
@@ -4715,7 +4715,7 @@
         <v>19542</v>
       </c>
       <c r="B40" t="n">
-        <v>142922</v>
+        <v>174132</v>
       </c>
       <c r="C40" t="s">
         <v>372</v>
@@ -4786,7 +4786,7 @@
         <v>19542</v>
       </c>
       <c r="B41" t="n">
-        <v>142923</v>
+        <v>174133</v>
       </c>
       <c r="C41" t="s">
         <v>379</v>
@@ -4851,7 +4851,7 @@
         <v>19542</v>
       </c>
       <c r="B42" t="n">
-        <v>142924</v>
+        <v>174134</v>
       </c>
       <c r="C42" t="s">
         <v>387</v>
@@ -4922,7 +4922,7 @@
         <v>19542</v>
       </c>
       <c r="B43" t="n">
-        <v>142925</v>
+        <v>174135</v>
       </c>
       <c r="C43" t="s">
         <v>397</v>
@@ -4993,7 +4993,7 @@
         <v>19542</v>
       </c>
       <c r="B44" t="n">
-        <v>142926</v>
+        <v>174136</v>
       </c>
       <c r="C44" t="s">
         <v>403</v>
@@ -5068,7 +5068,7 @@
         <v>19542</v>
       </c>
       <c r="B45" t="n">
-        <v>142927</v>
+        <v>174137</v>
       </c>
       <c r="C45" t="s">
         <v>411</v>
@@ -5143,7 +5143,7 @@
         <v>19542</v>
       </c>
       <c r="B46" t="n">
-        <v>142928</v>
+        <v>174138</v>
       </c>
       <c r="C46" t="s">
         <v>419</v>
@@ -5218,7 +5218,7 @@
         <v>19542</v>
       </c>
       <c r="B47" t="n">
-        <v>142929</v>
+        <v>174139</v>
       </c>
       <c r="C47" t="s">
         <v>427</v>
@@ -5289,7 +5289,7 @@
         <v>19542</v>
       </c>
       <c r="B48" t="n">
-        <v>142930</v>
+        <v>174140</v>
       </c>
       <c r="C48" t="s">
         <v>434</v>
@@ -5360,7 +5360,7 @@
         <v>19542</v>
       </c>
       <c r="B49" t="n">
-        <v>142931</v>
+        <v>174141</v>
       </c>
       <c r="C49" t="s">
         <v>442</v>
@@ -5427,7 +5427,7 @@
         <v>19542</v>
       </c>
       <c r="B50" t="n">
-        <v>142932</v>
+        <v>174142</v>
       </c>
       <c r="C50" t="s">
         <v>448</v>
@@ -5498,7 +5498,7 @@
         <v>19542</v>
       </c>
       <c r="B51" t="n">
-        <v>142933</v>
+        <v>174143</v>
       </c>
       <c r="C51" t="s">
         <v>455</v>
@@ -5565,7 +5565,7 @@
         <v>19542</v>
       </c>
       <c r="B52" t="n">
-        <v>142934</v>
+        <v>174144</v>
       </c>
       <c r="C52" t="s">
         <v>461</v>
@@ -5636,7 +5636,7 @@
         <v>19542</v>
       </c>
       <c r="B53" t="n">
-        <v>142935</v>
+        <v>174145</v>
       </c>
       <c r="C53" t="s">
         <v>469</v>
@@ -5707,7 +5707,7 @@
         <v>19542</v>
       </c>
       <c r="B54" t="n">
-        <v>142936</v>
+        <v>174146</v>
       </c>
       <c r="C54" t="s">
         <v>477</v>
@@ -5774,7 +5774,7 @@
         <v>19542</v>
       </c>
       <c r="B55" t="n">
-        <v>142937</v>
+        <v>174147</v>
       </c>
       <c r="C55" t="s">
         <v>483</v>
@@ -5845,7 +5845,7 @@
         <v>19542</v>
       </c>
       <c r="B56" t="n">
-        <v>142938</v>
+        <v>174148</v>
       </c>
       <c r="C56" t="s">
         <v>490</v>
@@ -5912,7 +5912,7 @@
         <v>19542</v>
       </c>
       <c r="B57" t="n">
-        <v>142939</v>
+        <v>174149</v>
       </c>
       <c r="C57" t="s">
         <v>497</v>
@@ -5983,7 +5983,7 @@
         <v>19542</v>
       </c>
       <c r="B58" t="n">
-        <v>142940</v>
+        <v>174150</v>
       </c>
       <c r="C58" t="s">
         <v>505</v>
@@ -6054,7 +6054,7 @@
         <v>19542</v>
       </c>
       <c r="B59" t="n">
-        <v>142941</v>
+        <v>174151</v>
       </c>
       <c r="C59" t="s">
         <v>513</v>
@@ -6125,7 +6125,7 @@
         <v>19542</v>
       </c>
       <c r="B60" t="n">
-        <v>142942</v>
+        <v>174152</v>
       </c>
       <c r="C60" t="s">
         <v>520</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_234.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r599248189-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>32431</t>
+  </si>
+  <si>
+    <t>77107</t>
+  </si>
+  <si>
+    <t>599248189</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>"Very nice stay"</t>
+  </si>
+  <si>
+    <t>We stayed here when touring the Hollywood area. Very friendly and helpful staff, our room was nice and comfortable. Restaurants were within walking distance nearby. Overall, we were happy to stay here and would probably do so again if visiting the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here when touring the Hollywood area. Very friendly and helpful staff, our room was nice and comfortable. Restaurants were within walking distance nearby. Overall, we were happy to stay here and would probably do so again if visiting the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r565817320-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>565817320</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here while touring LA. Not that far from Hollywood. We really liked this place. The rooms were clean and comfortable. The breakfast in the morning was very basic and pretty good. The people around there were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here while touring LA. Not that far from Hollywood. We really liked this place. The rooms were clean and comfortable. The breakfast in the morning was very basic and pretty good. The people around there were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r564665662-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>564665662</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good location </t>
+  </si>
+  <si>
+    <t>Old motel well kept up but our room did not smell very good. Very basic breakfast. Good parking and friendly staff. Lots of good restaurants and shopping nearby. I would stay in this neighborhood again but choose a different motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Old motel well kept up but our room did not smell very good. Very basic breakfast. Good parking and friendly staff. Lots of good restaurants and shopping nearby. I would stay in this neighborhood again but choose a different motel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r563159129-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
-    <t>32431</t>
-  </si>
-  <si>
-    <t>77107</t>
-  </si>
-  <si>
     <t>563159129</t>
   </si>
   <si>
@@ -180,9 +261,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Tina M, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 3, 2018</t>
   </si>
   <si>
@@ -192,9 +270,6 @@
     <t>The hotel is kinda hard to get into do to traffic, but other wise is really nice for a budget hotel. The room was clean. Only bad thing is the beds were rather hard. The breakfast was all various forms of carbs. Nick at the front desk was very helpful.More</t>
   </si>
   <si>
-    <t>MyHumbleOpinion</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552356707-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -222,9 +297,6 @@
     <t>Booked this hotel as an alternative to much more expensive options in Pasadena for our Rose Bowl Parade/Game adventure.  The area seemed very safe and it is a very quiet hotel with comfortable beds.  The staff was helpful and friendly and the rooms were clean.  Only criticism of the accommodations would be the phone had a light that flashed non stop and when I called the front desk they said to unplug it as they came that way from the factory and they didn't know how to turn it off.  Also our fridge was unplugged and not working and even after we plugged it in it never really got cold.  Another plus to the hotel is the grocery store across the street.More</t>
   </si>
   <si>
-    <t>drrkbrnng</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r552122608-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -252,7 +324,61 @@
     <t>We decided that this Econo Lodge offered the best value for our Los Angeles area stay, and while the Lodge did not necessarily disappoint, their simply was not much good about it. It was merely sufficient, providing the basic needs for budget travelers. The TV was small, the breakfast offerings meager (although it was nice that there was breakfast at all), and, most egregiously, the bathroom was quite dirty. You get what you pay for. As long as you do not expect too much, Econo Lodge can be a viable option, but it would not be my top choice, even on a tight budget.More</t>
   </si>
   <si>
-    <t>Kel M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r544957352-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>544957352</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Nice room but very poor internet wifi.</t>
+  </si>
+  <si>
+    <t>The place is well kept and clean. The room was nice but if you have work to do on the net, like I did, you cannot do anything as there was a very weak internet signal. For $100 a night, one should be getting a strong internet signal, like most other motels these days!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Econo Lodge, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>The place is well kept and clean. The room was nice but if you have work to do on the net, like I did, you cannot do anything as there was a very weak internet signal. For $100 a night, one should be getting a strong internet signal, like most other motels these days!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r536181550-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>536181550</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent for a budget hotel</t>
+  </si>
+  <si>
+    <t>The room was spacious, updated and clean. The service at check-in, check out and breakfast was exceptional. The hotel is very convenient to freeways and there are several stores and restaurants close by if you don't want to get on the freeway. We would definitely stay her again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>The room was spacious, updated and clean. The service at check-in, check out and breakfast was exceptional. The hotel is very convenient to freeways and there are several stores and restaurants close by if you don't want to get on the freeway. We would definitely stay her again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r534768921-Econo_Lodge-Glendale_California.html</t>
@@ -270,12 +396,6 @@
     <t>This place was clean and cozy.  The service was great too.  The price was good, the rooms clean and conveniently  located 2 blocks from Starbucks   we will stay here again if we are in the area.  We visited Universal Studios and used Umber,  it was under $13 each way, using pool, but we were alone in the cars.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded October 24, 2017</t>
   </si>
   <si>
@@ -285,9 +405,6 @@
     <t>This place was clean and cozy.  The service was great too.  The price was good, the rooms clean and conveniently  located 2 blocks from Starbucks   we will stay here again if we are in the area.  We visited Universal Studios and used Umber,  it was under $13 each way, using pool, but we were alone in the cars.More</t>
   </si>
   <si>
-    <t>TahoeFamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r521137126-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -315,9 +432,6 @@
     <t>This hotel is in a convenient location on Colorado Boulevard near freeways and half way between downtown Glendale and Pasadena.  When we were there the place was full and there was a shortage of parking, and some guests needed to park on the busy boulevard.  The room was clean but dated, and it needed some minor repairs. Overall, not bad for a basic 1970s era hotel.  No pool, no elevator, no extras.  The breakfast was okay, but minimal.More</t>
   </si>
   <si>
-    <t>Steven D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r513000174-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -348,7 +462,58 @@
     <t>I thoroughly enjoyed my stay at the Econo Lodge in  Glendale. Check In was super easy and I was recognized as a Choice rewards customer. The room was spotless and very tastefully decorated. It was very clean and completely as described. My only problem was the TV remote did not work, when I mentioned it the next morning they were apologetic and said if I had let them know earlier they would have fixed it. The grounds were very clean and a nice patio table out on the second floor.  The table was especially nice as I purchased take out from a Vietnamese place a block away and had a nice picnic.I would highly recommend this hotel.More</t>
   </si>
   <si>
-    <t>cookaborough</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r502290918-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>502290918</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Hollywood Stay</t>
+  </si>
+  <si>
+    <t>This was for a overnight while going to Hollywood. The room was very large and outdated. The room was what I expected from the pictures and price. If your just looking for a place to rest with no extras this is a nice place. There is a nice grocery store across the street. The hotel does have a laundry machine-key with manager. Ice machines require room key. The breakfast area is small as its in the front lobby. They have hot waffles everything else is cold carbs. Overall a nice one night stayMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>This was for a overnight while going to Hollywood. The room was very large and outdated. The room was what I expected from the pictures and price. If your just looking for a place to rest with no extras this is a nice place. There is a nice grocery store across the street. The hotel does have a laundry machine-key with manager. Ice machines require room key. The breakfast area is small as its in the front lobby. They have hot waffles everything else is cold carbs. Overall a nice one night stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r490356228-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>490356228</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here during memorial day weekend. It is at a very good location to visit universal, griffith. Front office Mr.Patel was very warm, cordial and made us very welcome. Thanks Mr.Patel for your exceptional hospitality. Breakfast was cereals, toast, waffles, hot drinks, juice and fruits, being vegetarians this suited us just fine. Housekeeping did a very good job as well. The bed and pillows were very comfortable. Had  a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here during memorial day weekend. It is at a very good location to visit universal, griffith. Front office Mr.Patel was very warm, cordial and made us very welcome. Thanks Mr.Patel for your exceptional hospitality. Breakfast was cereals, toast, waffles, hot drinks, juice and fruits, being vegetarians this suited us just fine. Housekeeping did a very good job as well. The bed and pillows were very comfortable. Had  a very nice stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r488032105-Econo_Lodge-Glendale_California.html</t>
@@ -366,9 +531,6 @@
     <t>We chose here as it seemed good value for money and its location to Universal Studios and Warner Brothers Studios. It ticked the boxes of all our requirements, the bed was extremely comfortable which was awesome after a long day at the Theme parks and tours. Breakfast included was an added bonus. Would stay here again. Good little asian takeaway/restaurant directly across the road.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded May 29, 2017</t>
   </si>
   <si>
@@ -378,9 +540,6 @@
     <t>We chose here as it seemed good value for money and its location to Universal Studios and Warner Brothers Studios. It ticked the boxes of all our requirements, the bed was extremely comfortable which was awesome after a long day at the Theme parks and tours. Breakfast included was an added bonus. Would stay here again. Good little asian takeaway/restaurant directly across the road.More</t>
   </si>
   <si>
-    <t>bluebonzoid</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r486130506-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -405,9 +564,6 @@
     <t>We stayed here for an economical place near Universal Studios.  The hotel is older but still nice for the price. The room was comfortable and clean, although it showed its age in places. The breakfast wasn't a big spread,but took care of our needs. More</t>
   </si>
   <si>
-    <t>Saitan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r476143760-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -435,7 +591,58 @@
     <t>I didn't expect this hotel to be so good. The room I got was big. It was just on the lobby so had lot of open space on 2nd floor.   I would recommend this hotel. Only disadvantage was the breakfast.  Choice was very limited and I didn't eat there as only few pancakes and nothing else at that time.  Can't complain about that as we paid very less. But definitely it is a big issue when the same room price goes to two hundred bucks for the weekend. Rooms were very clean, quiet. Friendly staff. Free parking.More</t>
   </si>
   <si>
-    <t>Fab I</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r469631851-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>469631851</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Cheap - Clean - Friendly staff - No frills</t>
+  </si>
+  <si>
+    <t>As long as your expectations match the price you paid for a room, you should be satisfied.  The staff is friendly and reasonably accommodating.  The room was clean but fairly old.  The continental breakfast was plenty enough to get us going but if you're a big breakfast person, make other plans.  Grocery store just across the street is convenient to access.  We were in the suite closest to the road.  I wouldn't recommend that room to anyone who has trouble with traffic noise, but we managed just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>As long as your expectations match the price you paid for a room, you should be satisfied.  The staff is friendly and reasonably accommodating.  The room was clean but fairly old.  The continental breakfast was plenty enough to get us going but if you're a big breakfast person, make other plans.  Grocery store just across the street is convenient to access.  We were in the suite closest to the road.  I wouldn't recommend that room to anyone who has trouble with traffic noise, but we managed just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r463826137-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>463826137</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Reasonable price, definitely a budget hotel...</t>
+  </si>
+  <si>
+    <t>Clerk was helpful and friendly. Room was clean. Wish there had been spare blankets available in room for those of us who don't want the heater on all night. Breakfast offering okay...but would have been nice to have had fruit or yogurt available, as is done in many other budget hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Clerk was helpful and friendly. Room was clean. Wish there had been spare blankets available in room for those of us who don't want the heater on all night. Breakfast offering okay...but would have been nice to have had fruit or yogurt available, as is done in many other budget hotels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r457098026-Econo_Lodge-Glendale_California.html</t>
@@ -453,12 +660,6 @@
     <t>I have stayed at Econo Lodge for one week and did not have a nice stay.The 'continental' breakfast includes coffee, orange juice, waffles, biscuits and that's about it.The rooms are clean but very old and not comfortable. Overall I cannot recommend this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded February 6, 2017</t>
   </si>
   <si>
@@ -468,9 +669,6 @@
     <t>I have stayed at Econo Lodge for one week and did not have a nice stay.The 'continental' breakfast includes coffee, orange juice, waffles, biscuits and that's about it.The rooms are clean but very old and not comfortable. Overall I cannot recommend this hotel.More</t>
   </si>
   <si>
-    <t>bsimonis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r445645665-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -498,9 +696,6 @@
     <t>I checked in late at the Econo Lodge on Colorado in Burbank. A call at 8PM to let them know that I would be there by 11 was - I felt - a necessary courtesy. When I arrived at 11, check-in was quick, my room was ready, and I had a great night's sleep. Even though it is on busy Colorado, it was quiet - other than a later arriving guest bumping their rollaboard up the stairs. (People, have some common courtesy!) A simple breakfast in the lobby the next morning included bake-it-yourself waffles, cereal, toast and some fruit. Great location, efficient staff, and clean - must have's at the end of a business day.More</t>
   </si>
   <si>
-    <t>Motik</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r443284944-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -525,7 +720,58 @@
     <t>I was going to give a higher rating, but a roach just ran across my room. Other than that, the room is clean and large. It's pretty basic, but if you don't need drawers (3 small drawers) or care that your closet is a bar in the sink area, it's fine. It was what I expected for the price, except for the roach.More</t>
   </si>
   <si>
-    <t>Moni F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r437032368-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>437032368</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>It was OK for a night</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Room was pretty clean except for a couple of hairs I found on the bathroom floor.  The chair in the room had some stains on it and some of the furnishings were outdated.  Room had a refrigerator and microwave in it.  Bed was OK.  The breakfast wasn't much to talk about and there is a very small space to eat in.  Only about three tables.  It was OK for a one night stay.There were also several restaurants within walking distance nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Room was pretty clean except for a couple of hairs I found on the bathroom floor.  The chair in the room had some stains on it and some of the furnishings were outdated.  Room had a refrigerator and microwave in it.  Bed was OK.  The breakfast wasn't much to talk about and there is a very small space to eat in.  Only about three tables.  It was OK for a one night stay.There were also several restaurants within walking distance nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r434080978-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>434080978</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Booked for Universal Studios/Hollywood</t>
+  </si>
+  <si>
+    <t>Hotel is what's expected from a budget-friendly establishment.  No stairs, rooms are a bit dated.  Very close to a mall and good restaurants including Porto's Glendale!  Our main goal was a place to sleep, we were not looking for much else.Breakfast was baked goods and pre-packaged pastries.Staff did a great job of cleaning up.  They were prompt at 9am when we were still in the room taking our sweet time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is what's expected from a budget-friendly establishment.  No stairs, rooms are a bit dated.  Very close to a mall and good restaurants including Porto's Glendale!  Our main goal was a place to sleep, we were not looking for much else.Breakfast was baked goods and pre-packaged pastries.Staff did a great job of cleaning up.  They were prompt at 9am when we were still in the room taking our sweet time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r433276534-Econo_Lodge-Glendale_California.html</t>
@@ -543,24 +789,12 @@
     <t>I'd say this place was pretty legit if you're looking for a budget stay. Came here because we were going to Universal HHN. It's about a 10min drive to Universal city walk. They have comfy beds, clean rooms/bathroom. They offer a small breakfast in the morning. My only complaint was that you can hear the busy street in the mornings and nights.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>HARESH P, Guest Relations Manager at Econo Lodge, responded to this reviewResponded November 3, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 3, 2016</t>
-  </si>
-  <si>
     <t>I'd say this place was pretty legit if you're looking for a budget stay. Came here because we were going to Universal HHN. It's about a 10min drive to Universal city walk. They have comfy beds, clean rooms/bathroom. They offer a small breakfast in the morning. My only complaint was that you can hear the busy street in the mornings and nights.More</t>
   </si>
   <si>
-    <t>mlbmickey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r431651908-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -585,9 +819,6 @@
     <t>Finding a good hotel room in Glendale on just about any weekend seems to be a challenge in the economy rate.  We had a nice room with a living room with a dining table and a bedroom with two queen beds.  It is not the most modern, but it is clean, and had a decent breakfast in the morning (although a bit crowded).  The staff are all friendly, there is recycling, and it was nice to be able to close the bedroom door so I could sleep later than the kids.  There is no pool, off-street parking is free, ice and soda machines, laundry and lots of restaurants within walking distance.  We were in a room right next to Colorado Street, but it was surprisingly quiet.  2 floors and no elevator in case that is an issue.  Part of Choice Hotels.More</t>
   </si>
   <si>
-    <t>Clubdeluxe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r430298109-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -606,7 +837,43 @@
     <t>We chose this Econo Lodge based on other reviews on TripAdvisor.  I hadn't stayed in an Econo Lodge before, but was pleasantly surprised when we got here. The room was not fancy, but everything was immaculately clean. The beds are very comfortable, and there are plenty of outlets near them. Wifi is decent too. Staff is very pleasant and accommodating. This is a small hotel so there aren't a lot of amenities. For me that was a plus as it was easy to come and go, easy parking, etc. I would stay here again. More</t>
   </si>
   <si>
-    <t>naturelover718</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r429479666-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>429479666</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Thank you Glendale Econo Lodge. Squeaky clean rooms, brand new carpet, kitschy older style building, but updated affordable rooms. We saw a few hotels that were dives before stumbling on this oasis! For the price, this motel is excellent. The owners and employees were fabulous; we were well taken care of. (We were picky because I used to clean houses; this place passed the test.) Ralph's grocery is across the street; everything's close. The ONLY drawback was the continental breakfast of only carbs with coffee in lobby but no coffee in the room. I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Thank you Glendale Econo Lodge. Squeaky clean rooms, brand new carpet, kitschy older style building, but updated affordable rooms. We saw a few hotels that were dives before stumbling on this oasis! For the price, this motel is excellent. The owners and employees were fabulous; we were well taken care of. (We were picky because I used to clean houses; this place passed the test.) Ralph's grocery is across the street; everything's close. The ONLY drawback was the continental breakfast of only carbs with coffee in lobby but no coffee in the room. I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r421624700-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>421624700</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Good Value for the money!</t>
+  </si>
+  <si>
+    <t>Clean and fairly priced. Furniture I thought was a bit outdated and bed not so comfortable but not so worn out either. I almost fell in the shower/tub the inside was very slippery. Other than that nothing exciting about this place. Just clean and fairly priced place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Clean and fairly priced. Furniture I thought was a bit outdated and bed not so comfortable but not so worn out either. I almost fell in the shower/tub the inside was very slippery. Other than that nothing exciting about this place. Just clean and fairly priced place to stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r420963418-Econo_Lodge-Glendale_California.html</t>
@@ -624,15 +891,9 @@
     <t>We stayed here for a few nights. Even though it was nothing fancy, it was clean and had lots of things you dont normally find in a hotel at this price- fridge, microwave, iron, hairdryer, ice machine and breakfast. It was close to Hollywood and Universal and close enough to restaurants that we walked to many places to eat. We had no issues with parking even though the lot was small. We would definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>We stayed here for a few nights. Even though it was nothing fancy, it was clean and had lots of things you dont normally find in a hotel at this price- fridge, microwave, iron, hairdryer, ice machine and breakfast. It was close to Hollywood and Universal and close enough to restaurants that we walked to many places to eat. We had no issues with parking even though the lot was small. We would definitely stay here again.More</t>
   </si>
   <si>
-    <t>MGJUN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409603985-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -651,9 +912,6 @@
     <t>This motel is a hidden jewel in the hustle - bustle of Glendale. Granted it is an older motel but very clean and comfortable.  The  entry/parking area is tucked away from the street and lined with potted, flowering plants. There is also a balcony, sitting area which is very pleasant.  The staff is efficient, friendly and always ready to assist.  There is a contential breakfast available but plenty of food offerings within a short walk.  It's close to many notable tourist destinations but a quiet respite for travelers. The price is modest for the area but a great place to stay.  I highly recommend it.More</t>
   </si>
   <si>
-    <t>move360</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r409254320-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -672,7 +930,40 @@
     <t>Standard motel.Room was quite large, but with old carpet and musty smell.Had a fridge - which was good. There is a supermarket across the street.Breakfast was poor - just waffles, some pastries, and oatmeal.A bit overpriced, but for the area you this is about as cheap as it gets without it being a dump.More</t>
   </si>
   <si>
-    <t>John S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r406856678-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>406856678</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Econo Lodge</t>
+  </si>
+  <si>
+    <t>This is an economy hotel as the name suggests, but it is clean, friendly, and easy to get to.  I have stayed here twice now just because I have received such great service.  The rooms were easy to book, and they are very affordable.This is not a luxury hotel, but the continental breakfast is nice, the rooms are big, and the hotel is close to restaurants, Starbucks, the mall, and the Glendale Adventist Hospital.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an economy hotel as the name suggests, but it is clean, friendly, and easy to get to.  I have stayed here twice now just because I have received such great service.  The rooms were easy to book, and they are very affordable.This is not a luxury hotel, but the continental breakfast is nice, the rooms are big, and the hotel is close to restaurants, Starbucks, the mall, and the Glendale Adventist Hospital.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r400152967-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>400152967</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Very responsive to needs</t>
+  </si>
+  <si>
+    <t>Pretty typical hotel, well-maintained. Nice rooms with fridge and microwave, nice breakfast, unfortunately no pool. What sets them apart is their responsiveness to whatever needs arise while you're staying. At breakfast the waffle maker did not work, so the manager quickly replaced it with a backup waffle maker. He then proceeded to fix the original waffle maker and offered to personally make waffles for us afterwards. Very impressed by the service. A final thought, if you have a pick up or oversize vehicle, parking is very tight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pretty typical hotel, well-maintained. Nice rooms with fridge and microwave, nice breakfast, unfortunately no pool. What sets them apart is their responsiveness to whatever needs arise while you're staying. At breakfast the waffle maker did not work, so the manager quickly replaced it with a backup waffle maker. He then proceeded to fix the original waffle maker and offered to personally make waffles for us afterwards. Very impressed by the service. A final thought, if you have a pick up or oversize vehicle, parking is very tight.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r395162765-Econo_Lodge-Glendale_California.html</t>
@@ -699,9 +990,6 @@
     <t>We stayed here 2 nights with another couple on our weeklong trip to California.  The room was nice enough, clean but average.  There are only three choices for restaurants within walking distance -- two Chinese and one Italian.  There is a pretty large supermarket across the street, which was a convenience for restocking for our day trips.The continental breakfast was somewhat limited.  A waffle machine, but no eggs or anything with protein, even peanut butter would have been welcome.  The breakfast room is small, so seating is limited.There is no elevator, so if your room is on the 2nd level, you have to carry your bags up the stairs. Your room key card is needed in order to get ice from the machine. I had not seen that before, suggesting that they might have had problems from the neighborhood.We paid about $95/night including taxes. It wasn't the lowest rate we got on our weeklong trip, but it wasn't the highest either.More</t>
   </si>
   <si>
-    <t>Chellyj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r394881421-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -720,9 +1008,6 @@
     <t>Located near downtown area, close to major malls, movies and freeways.  The rooms were clean and quiet, everything worked well.  Staff were very friendly and knowledgeable.  I would stay here again, location was greatMore</t>
   </si>
   <si>
-    <t>Kathleen V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r392277437-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -741,7 +1026,43 @@
     <t>This was my first visit to the Glendale Econo Lodge, and I was very pleased indeed. Yes, the decor and the fixtures are a little dated, but it's very clean, very convenient and very comfortable. The front desk staff couldn't be nicer or more accommodating. And I was surprised that the breakfast offerings were much better than those at the Glendale Vagabond Inn. They even have tables! And the rates were absolutely unbeatable. I will return.More</t>
   </si>
   <si>
-    <t>CanyonTraveler</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r387278338-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>387278338</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We rented our room here fairly cheap considering proximity to the LA area. It certainly wasn't 5 stars, but it was a place to stay within budget. The room was pretty dated, but had a refrigerator and microwave.  There was an odd, humid smell in the room. Happy to report we didn't see any critters though! Overall, a run of the mill cheap motel for those on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We rented our room here fairly cheap considering proximity to the LA area. It certainly wasn't 5 stars, but it was a place to stay within budget. The room was pretty dated, but had a refrigerator and microwave.  There was an odd, humid smell in the room. Happy to report we didn't see any critters though! Overall, a run of the mill cheap motel for those on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r384064539-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>384064539</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Great location to be within a few miles of Hollywood etc.</t>
+  </si>
+  <si>
+    <t>We picked this hotel to be close to the attractions in and around Hollywood, Universal, and Beverly Hills. The rooms were large and nice and CLEAN! We had a great nights sleep and breakfast was simple yet tasty. It is located in a quiet area with easy access to highways to head to points of interest. It was a great place to stay and met all our expectations and it is highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this hotel to be close to the attractions in and around Hollywood, Universal, and Beverly Hills. The rooms were large and nice and CLEAN! We had a great nights sleep and breakfast was simple yet tasty. It is located in a quiet area with easy access to highways to head to points of interest. It was a great place to stay and met all our expectations and it is highly recommended. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r376900200-Econo_Lodge-Glendale_California.html</t>
@@ -765,9 +1086,6 @@
     <t>Rooms and bathroom are small, as is the Dining area.  Rooms were clean and in good condition.  Breakfast items were typical fare, but everything was neat and clean.  No pool.  Check-in was quick.  WIFI worked well.More</t>
   </si>
   <si>
-    <t>Mark H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r373847289-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -786,9 +1104,6 @@
     <t>We rented 3 rooms here for a weekend. Our son was getting married in Eagle Rock and this motel was close to all of the activity locations. This is your typical older motel property but as others have mentioned the beds were very comfortable and the overall property is kept clean. The free breakfast is your standard fare in a small area in the motel lobby. Everything but the beds and TV's in these rooms is old and could use some updating but as I stated above the rooms were clean and the price is a bargain compared to the Best Western down the street.More</t>
   </si>
   <si>
-    <t>Glen R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r363222106-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -816,7 +1131,43 @@
     <t>Our primary focus for staying here was being close to universal and Hollywood for sightseeing.  Both were within a 15-20 min drive.The room was a single queen and met our needs. Was nice and clean. The only knock would be the AC unit was a little loud, but on our trip it seems to be the norm. Big bathroom ,but I think it was the handicap roomBreakfast was good, they had  the basic stuff (muffins/ cereal / yogurt/ juices) and waffles, which was good for us.Over we had good value for what we got and the proximity to the things we wanted to do.More</t>
   </si>
   <si>
-    <t>jlheidenrich</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r361629358-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>361629358</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Absolutely was delighted with our stay at Econo lodge. The reception was excellent our flight was really early and arrived about 3 hours before check in but he was more than helpful to get our room organised earlier. Great rooms worth every dollar spent. Location was great too, little far if you want to walk to the shopping centre but uber is cheap. All in all I would certainly stay again :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Absolutely was delighted with our stay at Econo lodge. The reception was excellent our flight was really early and arrived about 3 hours before check in but he was more than helpful to get our room organised earlier. Great rooms worth every dollar spent. Location was great too, little far if you want to walk to the shopping centre but uber is cheap. All in all I would certainly stay again :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r353981966-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>353981966</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Nowhere I'd rather stay!!! 😋</t>
+  </si>
+  <si>
+    <t>My husband and myself travel all over the US doing the building and installation of internet and cable hubs. We have stayed in more than a few different motels in the LosAngeles area examples being Pasadena, Eagle Rock, Glendale areas etc over the past 3 1\2 years and this is by far our favorite! When you are not from the state and nowhere familiar with any of the areas first and foremost you have to find safety, security, convenience to food and necessities, cleanliness, comfort and just all around the feeling of home. That i can assure you, that you will find that here at the EconoLodge in Glendale CA. We have never felt more welcome than we have here. The staff is all wonderful. All brand new Serta mattreses and i know that to be a fact because during our stay they delivered them.The decor is very well appointed. The furniture is very new and modern. I don't believe there is any better internet out there. Their internet rates excellent good enough to do video conferencing which is an A+. Don't let the name EconoLodge scare you from past experiences. Take my advice and the next time you are anywhere near or around the Glendale area, stay here and i can assure you that you will not regret it!! Thanks again all of you at the EconoLodge for making my husband and myself feel so at home!!!     Paula &amp;...My husband and myself travel all over the US doing the building and installation of internet and cable hubs. We have stayed in more than a few different motels in the LosAngeles area examples being Pasadena, Eagle Rock, Glendale areas etc over the past 3 1\2 years and this is by far our favorite! When you are not from the state and nowhere familiar with any of the areas first and foremost you have to find safety, security, convenience to food and necessities, cleanliness, comfort and just all around the feeling of home. That i can assure you, that you will find that here at the EconoLodge in Glendale CA. We have never felt more welcome than we have here. The staff is all wonderful. All brand new Serta mattreses and i know that to be a fact because during our stay they delivered them.The decor is very well appointed. The furniture is very new and modern. I don't believe there is any better internet out there. Their internet rates excellent good enough to do video conferencing which is an A+. Don't let the name EconoLodge scare you from past experiences. Take my advice and the next time you are anywhere near or around the Glendale area, stay here and i can assure you that you will not regret it!! Thanks again all of you at the EconoLodge for making my husband and myself feel so at home!!!     Paula &amp; Tim YatesMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and myself travel all over the US doing the building and installation of internet and cable hubs. We have stayed in more than a few different motels in the LosAngeles area examples being Pasadena, Eagle Rock, Glendale areas etc over the past 3 1\2 years and this is by far our favorite! When you are not from the state and nowhere familiar with any of the areas first and foremost you have to find safety, security, convenience to food and necessities, cleanliness, comfort and just all around the feeling of home. That i can assure you, that you will find that here at the EconoLodge in Glendale CA. We have never felt more welcome than we have here. The staff is all wonderful. All brand new Serta mattreses and i know that to be a fact because during our stay they delivered them.The decor is very well appointed. The furniture is very new and modern. I don't believe there is any better internet out there. Their internet rates excellent good enough to do video conferencing which is an A+. Don't let the name EconoLodge scare you from past experiences. Take my advice and the next time you are anywhere near or around the Glendale area, stay here and i can assure you that you will not regret it!! Thanks again all of you at the EconoLodge for making my husband and myself feel so at home!!!     Paula &amp;...My husband and myself travel all over the US doing the building and installation of internet and cable hubs. We have stayed in more than a few different motels in the LosAngeles area examples being Pasadena, Eagle Rock, Glendale areas etc over the past 3 1\2 years and this is by far our favorite! When you are not from the state and nowhere familiar with any of the areas first and foremost you have to find safety, security, convenience to food and necessities, cleanliness, comfort and just all around the feeling of home. That i can assure you, that you will find that here at the EconoLodge in Glendale CA. We have never felt more welcome than we have here. The staff is all wonderful. All brand new Serta mattreses and i know that to be a fact because during our stay they delivered them.The decor is very well appointed. The furniture is very new and modern. I don't believe there is any better internet out there. Their internet rates excellent good enough to do video conferencing which is an A+. Don't let the name EconoLodge scare you from past experiences. Take my advice and the next time you are anywhere near or around the Glendale area, stay here and i can assure you that you will not regret it!! Thanks again all of you at the EconoLodge for making my husband and myself feel so at home!!!     Paula &amp; Tim YatesMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r350391055-Econo_Lodge-Glendale_California.html</t>
@@ -840,9 +1191,6 @@
     <t>Econo Lodge is a nice place with recently updated rooms.  The rooms have a refrigerator, microwave ovens, and appear clean.The area has several restaurants, is across the street from Ralph's Market, and a nice area to walk during the dayContinental breakfast is great with lots of choices including a waffle iron and batter for making fresh waffles. The breakfast area is bright and uplifting in the morning.Econo Lodge in Glendale is a treat for lodgingMore</t>
   </si>
   <si>
-    <t>Lise A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r347958764-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -861,9 +1209,6 @@
     <t>Stayed in Feb. 2016 for 3 nights, room 218. The photos on their website are almost the same except there is no table in a room with a king bed. Clean rooms.When I went to take a bath the 2nd night, there was cold and dirty water in the tub. I called the front desk, they came to see and said they could not do anything and to wait for the next day. It took 1 hour to drain. So no shower or bath even if it had been 85 degrees during the day. The plumber finally came at 3hPM and they told us to move all our stuff to room 217 as the overflow in the bathtub came from an other room.They did not offer a discount or partial refund for changing rooms and for their plumbing problems which force us not to take a bath or shower for 1 night!Breakfast o.k. no fruits.More</t>
   </si>
   <si>
-    <t>ritesdfred</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r344882944-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -882,7 +1227,43 @@
     <t>I have stayed in a few different motels in the Pasadena, Eagle Rock, Glendale area over the past week and this is by far my favorite!  I think I got the room that is pictured on the website.  It is a huge double queen room.  The decor is well appointed.  The furniture is very new and modern.  The room is clean and comfortable.  The floors, beds, linens and towels all seem to be very clean.  I am very very happy with the accommodations and will definitely consider extending my stay here or returning in the future.More</t>
   </si>
   <si>
-    <t>lchicagolaw</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r344638397-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>344638397</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>After reading the great reviews, I had high hopes for this hotel. It is located southwest of the junction of the 134 and 2 Freeways, on Colorado Avenue. Nice area crammed full of restaurants and small businesses, convenience store across street.  Old style, 2 story motor hotel with outside entrances to rooms. Enough parking given the number of rooms. Check-in was cumbersome and slow, the room was charged in full to my credit card right then and there. The front desk clerk was friendly enough. Asked for and was assigned 2nd Floor room. The room itself was small but comfortable. Huge LCD TV, but the cable / satellite signal did not appear to be HD, so picture was not that good. Bathroom was not clean - hairs all over the place, gross. The AC / Heat unit did work well, and the bed and pillows were comfortable. Also, no coffee maker in room, did not notice until morning. At $105 / night, seems overpriced.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>After reading the great reviews, I had high hopes for this hotel. It is located southwest of the junction of the 134 and 2 Freeways, on Colorado Avenue. Nice area crammed full of restaurants and small businesses, convenience store across street.  Old style, 2 story motor hotel with outside entrances to rooms. Enough parking given the number of rooms. Check-in was cumbersome and slow, the room was charged in full to my credit card right then and there. The front desk clerk was friendly enough. Asked for and was assigned 2nd Floor room. The room itself was small but comfortable. Huge LCD TV, but the cable / satellite signal did not appear to be HD, so picture was not that good. Bathroom was not clean - hairs all over the place, gross. The AC / Heat unit did work well, and the bed and pillows were comfortable. Also, no coffee maker in room, did not notice until morning. At $105 / night, seems overpriced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r341739532-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>341739532</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Very good budget hotel</t>
+  </si>
+  <si>
+    <t>January 18, 2016:   we were in a single room with one queen bed, Check in - 3pm, Check out - 11am, parking spot included (one per room, although, they were kind to let us park two cars since the lot was not very full)Pros: free reliable wi fi, free breakfast (including waffles), 40+ inch TV with tons of channels (includes HBO), microwave + refrigerator + iron + blow dryer provided, under $100 per night, 3 minute walk from Zankou chickenCons: no pool or jacuzzi, waffles are the highlight of breakfast, only provided small bottle of shampoo and lotion (need to bring your own conditioner and soap)All in all, a very good budget hotel: you get what you pay for =)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 18, 2016:   we were in a single room with one queen bed, Check in - 3pm, Check out - 11am, parking spot included (one per room, although, they were kind to let us park two cars since the lot was not very full)Pros: free reliable wi fi, free breakfast (including waffles), 40+ inch TV with tons of channels (includes HBO), microwave + refrigerator + iron + blow dryer provided, under $100 per night, 3 minute walk from Zankou chickenCons: no pool or jacuzzi, waffles are the highlight of breakfast, only provided small bottle of shampoo and lotion (need to bring your own conditioner and soap)All in all, a very good budget hotel: you get what you pay for =)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r340715451-Econo_Lodge-Glendale_California.html</t>
@@ -900,15 +1281,9 @@
     <t>It is a 1970's version of a motel.  You can never open your curtains because people will always be standing outside your window smoking.  The breakfast is just bread.  The toaster only half works.  If they run out of anything, nobody replaces it.  The location is good.  We never felt unsafe.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>It is a 1970's version of a motel.  You can never open your curtains because people will always be standing outside your window smoking.  The breakfast is just bread.  The toaster only half works.  If they run out of anything, nobody replaces it.  The location is good.  We never felt unsafe.More</t>
   </si>
   <si>
-    <t>Scott G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r321487486-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -930,9 +1305,6 @@
     <t>We booked a room at this hotel at the last minute and based our decision on previous reviews. On arrival, the clerk was super friendly and had everything ready for us. A second floor room was waiting for us. When I asked to be moved to a ground floor room, it was no problem. She changed our keys and wished us a good evening. The room was clean, and smelled clean, too. If you were to look too closely, the age of the building becomes obvious. However, large flat screen tv, USB power outlets built into the wall outlets were nice. Decent bathroom, but more water pressure would have been nice. The bed was a little springy...We left early and did not see what, if any, breakfast service was offered. All in all, it was a comfortable stay, but what impressed me the most, was that we stayed on a Friday night with a football game going on at the school directly behind the motel and didn't hear a thing inside the room.More</t>
   </si>
   <si>
-    <t>denverjjm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r320501186-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -948,7 +1320,37 @@
     <t>I needed a budget hotel in the Glendale area and was pretty leery of most of the options. This hotel had good reviews so I went there and found it to be great value. Clean, comfortable, good parking, and really friendly service. I will return.</t>
   </si>
   <si>
-    <t>Caroline A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r317188901-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>317188901</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable at good value for money.</t>
+  </si>
+  <si>
+    <t>This hotel was one of the best we stayed at thorough out  visit to the US. The staff in resection was very polite.The rooms were very clean and the beds very comfortable, we slept very soundly.Breakfast wasgood, there was a good verity of food on offer. Good value for money.Would I stay here again YES. I definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r316502340-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>316502340</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean and Convenient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in LA for two nights, with one full day of sight-seeing before driving off to the Grand Canyon after our stay.  Econo lodge matched and lived up to our criteria of relatively low cost but clean and comfortable, whilst also being in a good location for a quick drive out of LA heading east for the Grand Canyon. We were able to drive to Hollywood for the tourist destinations quite quickly and were happy with the breakfast, wifi and service. Very good for what we needed. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r316452793-Econo_Lodge-Glendale_California.html</t>
@@ -966,12 +1368,6 @@
     <t>We had tickets to Universal's Halloween Horror Night and did not want to drive an hour and a half home at 2:30 in the morning so we rented a room here. Area was safe and well lit. We got to the hotel around 3am and felt very safe. The hotel was less than 10 minutes from Universal and everything worked well in the hotel.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>David S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r306441816-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -999,9 +1395,6 @@
     <t>Room was clean the WIFI was sloooow and you couldn't use the lobby computer after 9:30 pm or before 6:am Breakfast was small and skimpy not the usual complementary breakfast I usually have had at other lodges I have stayed at. I went out to a locale restaurant for a decent breakfast eggs toast milk coffee sausage They offered make your own waffles warm milk orange juice stored cereal fruit loops I think. I passed Coffee and a dispenser of milk... The people were friendly and courteous. Altho I may have been charged twice for my room Once with my Master Card then again with my Visa at check in time... Only when I can check with my account statements at the end of the billing cycle will I be sure... I would stay again I liked the staff.More</t>
   </si>
   <si>
-    <t>Michael N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r298416187-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1020,7 +1413,52 @@
     <t>AC was very loud, bed was not clean or confirmable at all. I went to this place after looking at the reviews of this hotel and the other hotels in the same area. Honestly this was the best of the worst based on the reviews. But I just wish I traveled a little longer to a better hotelMore</t>
   </si>
   <si>
-    <t>Kirk A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r294537737-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>294537737</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Great location, great price, Free parking!</t>
+  </si>
+  <si>
+    <t>Yes, it's a budget motel but it's clean, comfortable, quiet and convenient. If you're vacationing, it's not like you're going to spend a lot of time in the room other than to sleep. We got two rooms for the price of one at most other hotels in the area. It's right by the entrances to the Glendale and Ventura freeways so you're just a few minutes from many LA attractions.  It's a short drive to Sunset Blvd, Griffith Park, the zoo, WB studios, etc.There's a nice sun deck over the office and breakfast room. Free continental breakfast; toast, muffins, waffles.  The deck is nice in the evening too. Added benefit if you have pet allergies is that no pets are allowed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Yes, it's a budget motel but it's clean, comfortable, quiet and convenient. If you're vacationing, it's not like you're going to spend a lot of time in the room other than to sleep. We got two rooms for the price of one at most other hotels in the area. It's right by the entrances to the Glendale and Ventura freeways so you're just a few minutes from many LA attractions.  It's a short drive to Sunset Blvd, Griffith Park, the zoo, WB studios, etc.There's a nice sun deck over the office and breakfast room. Free continental breakfast; toast, muffins, waffles.  The deck is nice in the evening too. Added benefit if you have pet allergies is that no pets are allowed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r294265355-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>294265355</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>last resort</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a job seeking opportunity and would have to say it was more of a short notice and last resort place. The parking spaces available were limited and was difficult to drive within the small parking lot. The room was a budget room at a budget price, but for close to $100 per night I had higher expectations of quality. The room was clearly a smoking room when I ordered a non-smoking room, the air conditioning functioned but stunk, and the bed was extremely firm and uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a job seeking opportunity and would have to say it was more of a short notice and last resort place. The parking spaces available were limited and was difficult to drive within the small parking lot. The room was a budget room at a budget price, but for close to $100 per night I had higher expectations of quality. The room was clearly a smoking room when I ordered a non-smoking room, the air conditioning functioned but stunk, and the bed was extremely firm and uncomfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r278881426-Econo_Lodge-Glendale_California.html</t>
@@ -1041,18 +1479,9 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded August 3, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 3, 2015</t>
-  </si>
-  <si>
     <t>It's been since 2014 since I did my first review. I did it because I saw online booking companies rate it as a 2 star. After my first stay there, I couldn't believe they rated it only as a 2 star hotel. I just stayed 3 days during the Memorial Day Holiday, and I loved it as much then as the first time I stayed there. I had a double room; beautiful; clean; spacious; quiet; microwave; refrigerator; large screen tv; wifi. The rooms that I have stayed in have all been really clean. Bedspreads and sheets are clean. You will be really satisfied if you stay here. In my opinion, it's a 5 star compared to some of the other places I have stayed, including Ramada, Hilton. I found Econo Lodge much better than those two.They have a fairly nice sized lobby where they have a mini breakfast; coffee; Danish; waffles, etc. Plenty of room, tables and chairs. They even have a sun deck on the second floor. You can sit at a table and read a book or lie down and sun yourself.I don't know what else to say. This is a really great place to stay. It is what it is.Kirk :)More</t>
   </si>
   <si>
-    <t>mariabS7141JE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r266900957-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1074,9 +1503,6 @@
     <t>My daughter felt it was a good place in between the Dodger Stadium and Universal Studios.  Breakfast was adequate and the breakfast area very clean. The rooms were adequate.  Everything in working order. Plumbing good and I appreciated the hot water when I took a shower. Parking area very well lit. A few local restaurants and a grocery store within walking distance. Staff not rude but approachable. More</t>
   </si>
   <si>
-    <t>Chris T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r264124092-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1093,6 +1519,39 @@
   </si>
   <si>
     <t>Just stayed here for 3 nights and for the price it's a good hotel.It was clean and comfortable and the staff were friendly and helpful.It is a little bit away from things but not too far.We had a hire car so could get around but was only around a $30 Downtown (staples centre). Dodgers stadium not far away and Hollywood only about a 15min drive depending on traffic.From here we did malibu, Beverly Hills, Hollywood, santa monica, Venice, Hollywood hills and downtown without too much trouble.There are some fast food places and a grocery store nearby so getting a meal at the end of the day was easy.It's not the Ritz Carlton but pretty good for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r258695387-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>258695387</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>Very nice room clean, big, everything is working good in the room. Nice rate. Near to the mall and restaurant. Busy road but you will rest good is not loud when you are inside the room. Going to stay here again. Nice staff...</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r256558615-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>256558615</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>I stayed there for 1 night.  Customer Service was great.  The room was spotless and comfortable.  I took an awesome shower!  Location was great with restaurants nearby.  I would definitely stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r241997128-Econo_Lodge-Glendale_California.html</t>
@@ -1118,9 +1577,6 @@
     <t>I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.
 These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.
 There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have...I stayed here for 2 days, 11-26-14 to 11-28-14. How this could rate an average of 2 stars is an insult! I rate this a 5 star, period! I tried to find a 'con' to put down. I could find only 'pros' .Nothing wrong. Single room, huge bed, 4 fantastic pillows, beautiful flat screen tv, couch with chairs, writing desk with a chair, refrigerator (not the tiny one and not the regular sized one. In between those sizes), microwave, plenty of towels and soap, and get this - the drain in the bathtub didn't back up! LOL. I's serious. Even better - there was plenty of water pressure.These rooms are beautiful, clean, quiet. Everything appears to be really new. They have been remodeling the rooms. I saw one complaint about how small the area is where they had breakfast in the morning. It's in the lobby and it's plenty big enough. 4 tables and chairs and a nice sized counter with coffee, rolls and Danish, etc. What did this person expect, a huge cafeteria? I swear, there are people who travel who should never be allowed to leave a review.There is absolutely nothing wrong with this hotel. If I have need to stay again, and I will around Xmas, this is where I am staying. I promise you, if you stay at this hotel, this is where you will stay when you come back. The pictures they have online showing the rooms, etc. -- they are just as nice when you show up. Absolutely beautiful rooms. Clean as they can be. Wifi works perfectly. I honestly can't find any reason to give this less than 5 stars. I shook the hand of the owner before I left and said "thank you." He was all smiles. :)More</t>
-  </si>
-  <si>
-    <t>kellery</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r241967816-Econo_Lodge-Glendale_California.html</t>
@@ -1146,9 +1602,6 @@
 The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see...This is one of those motels where the website pictures look a heck of a lot better than the actual place-at least that is what I thought. Again travelling with the old man who takes great pleasure at seeing how cheap he can score a room-and we landed here at Econo Lodge, my first and last stay in this lower tier of the Choice Hotel group.The rooms had a bit of an odour and the first thing I did was to peel down the bedspread and slip my flip flops on. It wasn't dirty, but it felt like it-which is why I will be selling disposable coveralls for those times when you need a bit more protection. But the old man found his room fine. I couldn't sleep most of the night because of movement outside our room-lots of comings and goings- and, of course, being a creative type, my brain was in hyperdrive imaging all sorts of characters passing by. The bathroom was OK, new TV in room as well as a small fridge and microwave that we ended up unplugging because of its loud humming noise. I don't like fridges or microwaves in hotels-and I certainly couldn't imagine heating up anything here and dining in the room.The breakfast area was clean and they offered waffles, coffee, juice and bagels, but if you like nice surroundings and ambience, you won't be happy here. However, if you see hotels or motels as a place to lay your head, you may want to consider this place.More</t>
   </si>
   <si>
-    <t>ritatravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r240968900-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1167,7 +1620,46 @@
     <t>We flew into LAX and weren't sure of the area, so chose this location...helpful staff; clean room; affordable; nice breakfast choices. Also, this was convenient to Griffith Park, Getty Museum and Villa. We also learned that staying "outside" of LA doesn't' mean less traffic! But having a GPS saves time and marriages!!More</t>
   </si>
   <si>
-    <t>Ineke_Belgium</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r239733388-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>239733388</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>The Little Things Do Matter</t>
+  </si>
+  <si>
+    <t>We were trying to save money so we booked this hotel for 2 nights in October prior to visiting Anaheim. Check-in went well and attendant was friendly. Our room was on the second floor. Upon walking in I immediately smelled the scent of dog urine. (Later, I noticed this same odor outside the room, so it could have came from a different source.) Although the room looked clean, it didn't "feel" clean. I also hate it when there are dry "boogies" on the walls. Seriously? Who does that? Luckily I carry disinfectant wipes. So, Target Store here we come! Just had to get some room deodorizer. The Galleria is close by and it's always a fun place to visit. The beds were decent and we slept well. I was looking forward to breakfast the next morning but just couldn't get into eating a waffle made in a crusty waffle-maker. Coffee was so weak. They also offered cereal and packaged pastries. We ended up going to McDonald's where we were greeted by a very friendly homeless man! The ice maker and recycle bin at the bottom of the stairs were quite dirty and an eye sore. Construction was going on at the time, so I'll give them that as an excuse. I most likely would never stay here again. I'd much rather pay more for a better quality stay. Sorry Econo Lodge.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We were trying to save money so we booked this hotel for 2 nights in October prior to visiting Anaheim. Check-in went well and attendant was friendly. Our room was on the second floor. Upon walking in I immediately smelled the scent of dog urine. (Later, I noticed this same odor outside the room, so it could have came from a different source.) Although the room looked clean, it didn't "feel" clean. I also hate it when there are dry "boogies" on the walls. Seriously? Who does that? Luckily I carry disinfectant wipes. So, Target Store here we come! Just had to get some room deodorizer. The Galleria is close by and it's always a fun place to visit. The beds were decent and we slept well. I was looking forward to breakfast the next morning but just couldn't get into eating a waffle made in a crusty waffle-maker. Coffee was so weak. They also offered cereal and packaged pastries. We ended up going to McDonald's where we were greeted by a very friendly homeless man! The ice maker and recycle bin at the bottom of the stairs were quite dirty and an eye sore. Construction was going on at the time, so I'll give them that as an excuse. I most likely would never stay here again. I'd much rather pay more for a better quality stay. Sorry Econo Lodge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r234186221-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>234186221</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Good Location, OK Hotel but staf needs some training</t>
+  </si>
+  <si>
+    <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor. Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.By the way, Wifi was bad !MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor. Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.By the way, Wifi was bad !More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r229776628-Econo_Lodge-Glendale_California.html</t>
@@ -1185,15 +1677,9 @@
     <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor.Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>It's just off the highway so location wise it is very good. The aircon is extremely noisy and the walls are so thin you can hear everything from next door as well as from the second floor.Size of the room is okay with a bit outated bathtub. A fridge and microwave is available. In the morning there is breakfast in the lobby but don't go there if it's crowdy because it is a small area. The front desk person can learn some hospitality rules because he was not nice to customers.More</t>
   </si>
   <si>
-    <t>Milhan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222284708-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1209,9 +1695,6 @@
     <t>We just returned from a 6 night stay at the Econo Lodge in Glendale, and we were very pleased with the experience. While a budget hotel, it felt "richer"  than some other places that I have stayed in a similar price range. The hotel is clean and comfortable, large rooms, small but adequate breakfast, and the hotel staff are very friendly. Nice little patio on the second level, good place to have your tea or coffee in the morning. The location of the hotel is terrific. Glendale is a lovely area. You have supermarkets, restaurants and the Glendale Galleria right on the same street. Close to Hollywood, the Sunset Strip, Burbank, Studio City, and easy to get to the beaches and a 45 minute drive to Disneyland.Should we find ourselves in Los Angeles again, we would definitely consider staying here.MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded August 18, 2014</t>
   </si>
   <si>
@@ -1221,9 +1704,6 @@
     <t>We just returned from a 6 night stay at the Econo Lodge in Glendale, and we were very pleased with the experience. While a budget hotel, it felt "richer"  than some other places that I have stayed in a similar price range. The hotel is clean and comfortable, large rooms, small but adequate breakfast, and the hotel staff are very friendly. Nice little patio on the second level, good place to have your tea or coffee in the morning. The location of the hotel is terrific. Glendale is a lovely area. You have supermarkets, restaurants and the Glendale Galleria right on the same street. Close to Hollywood, the Sunset Strip, Burbank, Studio City, and easy to get to the beaches and a 45 minute drive to Disneyland.Should we find ourselves in Los Angeles again, we would definitely consider staying here.More</t>
   </si>
   <si>
-    <t>PPorter A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r222223972-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1239,7 +1719,49 @@
     <t>Here for family event, was disappointed we weren't staying in a trendy LA hotel, but this ended up being a charming motel with nice owners, great location, amazing rooms.  Would stay here again, and recommend it to anyone, especially on a budget.More</t>
   </si>
   <si>
-    <t>margotswann</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r211294896-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>211294896</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Small and Cozy</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Econo Lodge and it pretty for the price we paid. Room was renovated with a nice big LG TV and new bed. Some paint stains on the wall but I didn't mind. The staff was friendly and helpful. We may stay if we go to the area again. The only negative was the room was small but really that should not be a reason not to stay. Rooms was clean and that what mattered to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>HARESH P, General Manager at Econo Lodge, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Econo Lodge and it pretty for the price we paid. Room was renovated with a nice big LG TV and new bed. Some paint stains on the wall but I didn't mind. The staff was friendly and helpful. We may stay if we go to the area again. The only negative was the room was small but really that should not be a reason not to stay. Rooms was clean and that what mattered to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r206856086-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>206856086</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r205391144-Econo_Lodge-Glendale_California.html</t>
@@ -1257,15 +1779,9 @@
     <t>My husband and I stayed three nights at this Econo Lodge.  We were delightfully surprised at the amenities and service:  hair dryer, soaps, shampoo, etc, iron &amp; full ironing board, free WiFi and parking, plus a large screen TV with cable.  And then there was the clever breakfast which included juices, coffee &amp; tea fixings, cereals, fresh baked goods with a toaster, a stack of current "USA Today"s, and make yourself Belgian waffles with real butter.  In addition to the small dining area there is a roof-top patio.The rooms were small but did have a small table and chairs - the "suites" were more ample.  Only one car per room was permitted.  There were lots of flowers in the limited space near the walkway, many in containers.Over all this is a very acceptable economy option for Glendale.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>My husband and I stayed three nights at this Econo Lodge.  We were delightfully surprised at the amenities and service:  hair dryer, soaps, shampoo, etc, iron &amp; full ironing board, free WiFi and parking, plus a large screen TV with cable.  And then there was the clever breakfast which included juices, coffee &amp; tea fixings, cereals, fresh baked goods with a toaster, a stack of current "USA Today"s, and make yourself Belgian waffles with real butter.  In addition to the small dining area there is a roof-top patio.The rooms were small but did have a small table and chairs - the "suites" were more ample.  Only one car per room was permitted.  There were lots of flowers in the limited space near the walkway, many in containers.Over all this is a very acceptable economy option for Glendale.More</t>
   </si>
   <si>
-    <t>1DerryTreeHugger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r200357179-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1287,9 +1803,6 @@
     <t>First,  I would stay here again.  I was happy with it -- nothing fancy, but it met my needs.That said, if you're looking for modern, all the bells and whistles, go elsewhere.  It was clean - not immaculate, but fully acceptable.  It was earthy colors, somewhat dated, but comfortable.  There was a mini-fridge, cable TV, wireless internet, an iron, a microwave, beds, toilet, sink, shower, table &amp; 2 chairs, dresser, end-table, desk &amp; chair.  The heat/a.c. was fine.  I saw an ice machine.  No pool/hot tub.  If I were planning on staying in the room, it would have felt quite small by today's standards.  As a place to sleep, shower, and dress -- and return at night to do it all again, it was sufficient.The breakfast was choice of 2 cereals, English muffins, toast, mini-muffins, or a fresh made waffle with maple-flavor syrup.  They didn't have decaf, but they did have juice, and I happened to have packed a few decaf tea bags of my own.  It wasn't outstanding, but it carried us through to lunch.The Patel family was warm and helpful, very nice people.  We needed 2 rooms and the price was right.  As I said, I'd go back.  We had no issues.  If you need modern, open space and other amenities and want to spend the day at a hotel, you probably should pay more.  This was great as a "home base."More</t>
   </si>
   <si>
-    <t>manilabelle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r194855522-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1311,7 +1824,43 @@
     <t>Rooms are bigger than hotels ! You get a guest nook area, toilet is separated from sink. Sink lavatory counter is big , you can actually treat is as table . Ref, microwave is provided. You have area to hang your clothes.  Breakfast is provided . Simple cereal , bread, pancake for the guests.Wifi is free. Outside inn are restaurants, chinese food etc... Price- cheap, and compare to same price inns in nearby area, this is better.More</t>
   </si>
   <si>
-    <t>Ann359</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r189776206-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>189776206</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Exactly What We Needed</t>
+  </si>
+  <si>
+    <t>We just returned from the Glendale/Pasadena area after attending the Rose Bowl.  The location was perfect for us to attend numerous events.  The king-suite hotel room itself was very clean/spacious and the bathroom appeared to have been recently remodeled.  As expected nothing real fancy here however all our needs were met and between the grocery store across the street, fast food near by, and the Target store less than a mile away was very convenient.  Staff was very cordial and friendly.  Area also appeared to be very safe.  All-in-all after anguishing locations to where to stay for the Rose Bowl we were extremely happy with this choice and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We just returned from the Glendale/Pasadena area after attending the Rose Bowl.  The location was perfect for us to attend numerous events.  The king-suite hotel room itself was very clean/spacious and the bathroom appeared to have been recently remodeled.  As expected nothing real fancy here however all our needs were met and between the grocery store across the street, fast food near by, and the Target store less than a mile away was very convenient.  Staff was very cordial and friendly.  Area also appeared to be very safe.  All-in-all after anguishing locations to where to stay for the Rose Bowl we were extremely happy with this choice and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r185286716-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>185286716</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>easy, clean, convenient, cheap!</t>
+  </si>
+  <si>
+    <t>We had a hard time deciding where to stay in Glendale; I grew up there and we were just back in town for one night on family business. We needed someplace clean and wanted, of course, not to spend very much money. The reviews of reasonable places were mixed, and we changed our minds twice before settling on the Econo Lodge. Thankfully it turned out to be just what we wanted! The reception was easy and friendly, the room more than adequate, the location convenient to downtown, and surprisingly, it was quiet.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r175183917-Econo_Lodge-Glendale_California.html</t>
@@ -1332,9 +1881,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>KizzysMom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r168807706-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1356,9 +1902,6 @@
     <t>There was a glitch in the air conditioning controls. We tried every possible combination to get the unit to cool without success. Since Glendale was in the middle of a heat wave, and we had a very important meeting the next day, it was imperative that we get quality sleep. We spoke with the manager, and he immediately followed us back to our room and rectified the situation.We could not have been more pleased with his response. This type of service has been sadly lacking in some of the other motels where we stayed. This was a refreshing change.Nice decor, clean. Furniture is somewhat worn, with stuffing on back of desk chair falling out. Good breakfast, love those Belgian waffles. Orange juice a little watered down. We weremost impressed by the response of staff to our AC problem. We would definitely return, andwould definitely refer our friends.More</t>
   </si>
   <si>
-    <t>AnneMelodini</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r163766607-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1374,7 +1917,40 @@
     <t>Location of this hotel is good. It was fairly quiet when we stayed there. There were several maintenance issues with the room, including leaking sink and non-operational door lock. They are tearing out the pool and spa. The owners were nice.  Continental breakfast was more than adequate. Homemade waffles!</t>
   </si>
   <si>
-    <t>Sugamyers</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r163616435-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>163616435</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We recently stayed at this motel twice while visiting family in the area.  Both of the rooms that we stayed in were very nice and very clean.  The motel is convenient to the Interstates.  Breakfast was ok, not much in the way of choices, but plenty for us.   The motel is within walking distance of McDonald's and some other restaurants.  Our stay was quiet, we felt safe and it served our purpose very well.  We will stay again when we visit the area.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r158950078-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>158950078</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant stay staff very friendly</t>
+  </si>
+  <si>
+    <t>Nice room decor .. friendly staff , great breakfast, convenient location, very clean rooms housekeeping very friendly, will be telling family and friends about this hotel will definitely be staying here again.......</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r140200317-Econo_Lodge-Glendale_California.html</t>
@@ -1395,9 +1971,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>BBfromCT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r128449816-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1413,9 +1986,6 @@
     <t xml:space="preserve">I was staying in Glendale for 9 days and this turned out to be a more than adequate home base for my travels. It was nice to have a fridge microwave and iron in the room.  The staff was pleasant and accomodating. The pool was clean and the veranda was a nice place to enjoy my continental breakfast each morning. I would stay here again. </t>
   </si>
   <si>
-    <t>Indi237</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r127109237-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1437,7 +2007,37 @@
     <t>I just needed a place to crash and that is what I got. It is convenient to highways 2 and 134 and was full on my night. The parking lot is tight.There is a Ralphs just across the street. When I got to the room, the air was stale and funky. I wish I could have left the window open. It had basic necessities. The TV was nice! The TP holder was loose and the box springs of the bed were covered with a cloth that did not look appetizing. Ice is available with your room key. The staff was mixed, some friendly, some not. The breakfast was very basic. Waffles, cereal or a sweet roll. No fruit, yogurt, eggs or other options. The was a pool and jacuzzi, but I saw neither used. In all, it worked because I was not there much, except to sleep.More</t>
   </si>
   <si>
-    <t>INEEDAGOODNIGHTSREST</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r118274418-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>118274418</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Good place for a night or two</t>
+  </si>
+  <si>
+    <t>I needed a reasonably priced hotel while on a business trip.  Had to drive into West L.A., but hotels there are so expensive that I was willing to drive.  This is a typical economy hotel, clean, simple, no frills.  Good experience.  Local shopping and restaurants within easy walking distance.  As a single woman travelling alone, I wanted to be in a safe city and safe area, and this fit the bill.  Only neagative is shortage of parking spaces in the hotel lot.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r116405490-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>116405490</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>Very satisfied!</t>
+  </si>
+  <si>
+    <t>The staff was great! They were very helpful and informtive. The young lady at the desk even helped my friend and I with food options and gave us numbers and directions for places to eat near by. The room was average but the customer service and price was great! I would stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r86297513-Econo_Lodge-Glendale_California.html</t>
@@ -1461,9 +2061,6 @@
     <t>Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only...Hotel needs major overhaul in the rooms, including paint, carpets, electrical, plumbing, etc.  Just very outdated inside and out.  Room seemed clean but again, needed paint badly because there were lots of wall stains and with all the other problems, you don't really know that the room is clean because of the lack of care in the other areas.  We had a first floor room and the person upstains above our room seemed to be a professional dancer because the floor/ceiling to our room noise was really bad, with squeeks and cracking noise when the person went across the floor, so if you stay here, get a second floor room.  If you arrive late, parking is very tight.  Remodel going on to make a larger breakfast area (present breakfast was a laugh, a packaged roll and something they called coffee). A new mini-lobby going is going in with breakfast area but nothing going on toward upgrading rooms that we saw.  Not the cleanest place we have stayed at either. Microwave had food stains inside.  Have you ever gotten in bed and just before shutting the light, you look up at the ceiling and see slattered stains on it that looked like blood???  Well, we could in our room.   We had to un-plug the refrigerator to sleep it was so loud.    Price was okay but for $15 more a night we moved on to another Hotel Chain that was nicer.  Only thing we can say that worked for us here was the location.More</t>
   </si>
   <si>
-    <t>alanwbaker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r62986856-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1479,9 +2076,6 @@
     <t>We stayed here for two nights.  On the plus side the room was quite clean, the (wired) internet access worked well, and the staff was pleasant.  On the minus side there were simple maintenance issues:  alarm clock didn't work, TV was fuzzy, mini-fridge and bathroom fan were extremely loud, one electrical outlet plate protruded from the wall and one of its outlets did not work.  This is an economy motel so I don't expect 5-star standards, but management here needs to address deferred maintenance.</t>
   </si>
   <si>
-    <t>pinktrollManila</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r48797763-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1500,7 +2094,61 @@
     <t>October 2007</t>
   </si>
   <si>
-    <t>SunnyvaleBayareadude</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r38419838-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>38419838</t>
+  </si>
+  <si>
+    <t>08/21/2009</t>
+  </si>
+  <si>
+    <t>Convenient, but nothing special</t>
+  </si>
+  <si>
+    <t>Basic, older hotel.  Spacious room with refridgerator and small table.  Large outdoor deck that was convenient for drying diving gear.  Free breakfast was not worth going for.  Met our needs for basic place to stay.  Not intended as a destination hotel.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r28687666-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>28687666</t>
+  </si>
+  <si>
+    <t>04/24/2009</t>
+  </si>
+  <si>
+    <t>Cheap and ok</t>
+  </si>
+  <si>
+    <t>Econo Lodge Glendale LA
+Motel style and no AAA stars. Very tiny lobby.
+Buildings surround the parking lot and a small pool with jaccuzzi. Some plants and flowers give the courtyard a friendlier look.
+Rooms were standard with 2 beds, chairs, table. No wireless internet, but free with cable (unfortunately those cableds don’t plug into european laptops).
+You were not disturbed by traffic noise though it’s located right on a busy street, near BW Eagle Rock. Many shops, small restaurants and a supermarket in walking distance.
+It was a standard motel room (on the internet the whole place looked much nicer), we had a room on 2nd floor. Unfortunately we got one in a corner right opposite to a wall (nice view, uh..) and in this small corridor it was terribly hot. Even with the aircondition on it was a bit warmer in the room than in our friends room that was a bit away from that corner. Fortunately we only had there a night because of the view – I would not have wanted to stay there for longer time.
+The bathroom was very tiny with toilet and tub. Shampoo and soap provided. Water pressure ok.
+Beds (2 queen) were good and sink was in the back of the room. Working desk is there as well.
+In the morning you will get some danish pastries and coffee and juice for breakfast.
+No high quality rooms but clean and ok...Econo Lodge Glendale LAMotel style and no AAA stars. Very tiny lobby.Buildings surround the parking lot and a small pool with jaccuzzi. Some plants and flowers give the courtyard a friendlier look.Rooms were standard with 2 beds, chairs, table. No wireless internet, but free with cable (unfortunately those cableds don’t plug into european laptops).You were not disturbed by traffic noise though it’s located right on a busy street, near BW Eagle Rock. Many shops, small restaurants and a supermarket in walking distance.It was a standard motel room (on the internet the whole place looked much nicer), we had a room on 2nd floor. Unfortunately we got one in a corner right opposite to a wall (nice view, uh..) and in this small corridor it was terribly hot. Even with the aircondition on it was a bit warmer in the room than in our friends room that was a bit away from that corner. Fortunately we only had there a night because of the view – I would not have wanted to stay there for longer time.The bathroom was very tiny with toilet and tub. Shampoo and soap provided. Water pressure ok.Beds (2 queen) were good and sink was in the back of the room. Working desk is there as well.In the morning you will get some danish pastries and coffee and juice for breakfast.No high quality rooms but clean and ok for a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>Econo Lodge Glendale LA
+Motel style and no AAA stars. Very tiny lobby.
+Buildings surround the parking lot and a small pool with jaccuzzi. Some plants and flowers give the courtyard a friendlier look.
+Rooms were standard with 2 beds, chairs, table. No wireless internet, but free with cable (unfortunately those cableds don’t plug into european laptops).
+You were not disturbed by traffic noise though it’s located right on a busy street, near BW Eagle Rock. Many shops, small restaurants and a supermarket in walking distance.
+It was a standard motel room (on the internet the whole place looked much nicer), we had a room on 2nd floor. Unfortunately we got one in a corner right opposite to a wall (nice view, uh..) and in this small corridor it was terribly hot. Even with the aircondition on it was a bit warmer in the room than in our friends room that was a bit away from that corner. Fortunately we only had there a night because of the view – I would not have wanted to stay there for longer time.
+The bathroom was very tiny with toilet and tub. Shampoo and soap provided. Water pressure ok.
+Beds (2 queen) were good and sink was in the back of the room. Working desk is there as well.
+In the morning you will get some danish pastries and coffee and juice for breakfast.
+No high quality rooms but clean and ok...Econo Lodge Glendale LAMotel style and no AAA stars. Very tiny lobby.Buildings surround the parking lot and a small pool with jaccuzzi. Some plants and flowers give the courtyard a friendlier look.Rooms were standard with 2 beds, chairs, table. No wireless internet, but free with cable (unfortunately those cableds don’t plug into european laptops).You were not disturbed by traffic noise though it’s located right on a busy street, near BW Eagle Rock. Many shops, small restaurants and a supermarket in walking distance.It was a standard motel room (on the internet the whole place looked much nicer), we had a room on 2nd floor. Unfortunately we got one in a corner right opposite to a wall (nice view, uh..) and in this small corridor it was terribly hot. Even with the aircondition on it was a bit warmer in the room than in our friends room that was a bit away from that corner. Fortunately we only had there a night because of the view – I would not have wanted to stay there for longer time.The bathroom was very tiny with toilet and tub. Shampoo and soap provided. Water pressure ok.Beds (2 queen) were good and sink was in the back of the room. Working desk is there as well.In the morning you will get some danish pastries and coffee and juice for breakfast.No high quality rooms but clean and ok for a night.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r19206568-Econo_Lodge-Glendale_California.html</t>
@@ -1521,9 +2169,6 @@
     <t>Stayed here for 4 nights. nice, quiet rooms. we had a room with two queen beds, but no full kitchen. rates are fairly low. the hotel has only about 30 or so units, so gets filled up quickly. we noticed that it stayed full while other hotels , across the street, appeared to have a high vacancy rate (based on vehicles in the parking lot). has a nice patio on the upper floor, that gives good views of the hills in the distance. very close to shopping areas, and close to pasadena.likes - quiet, peaceful area, easy access to grocers across the road, easy access to several freeways. moderate rates. a similar unit in extended stay would have cost nearly double.dislikes- we needed a rollaway bed. the one we were given had a terrible sag and was useless. the other two beds in the room were firm enough, but were occupied by other members of my group. no bread slices with breakfast. no eggs either.More</t>
   </si>
   <si>
-    <t>DonnaR57</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r18764354-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1545,9 +2190,6 @@
     <t>We chose this property based on good reviews both here and on another ratings website.  It's located in town, near a lot of different things.  The management was very kind and accommodated our need to check in early due to tickets to the Warner Brothers VIP Tour (EXCELLENT tour; we recommend it!) at 1:20 in the afternoon.  Everything was fairly new and very clean. The only disappointment was no in-room coffeemaker, but the small continental breakfast had coffee available.  The pool and jacuzzi are small, but we didn't try them out as we were really busy.  If we come up here again (and we probably will), we'll most likely stay here again.  It's only about 10 minutes from most of the Hollywood stuff.More</t>
   </si>
   <si>
-    <t>NtecInTraining</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r17269803-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1569,7 +2211,40 @@
     <t>This is my last night at the Econo Lodge, Glendale, CA.  My company wanted to put me in the Hilton. But, I asked for the Econo Lodge after reading tripadvisor's reviews of all the establishments in Glendale. I was surprised to see all the other employees who were to be put up at the Hilton, also chose the Econo Lodge. It is just what I hoped for: very clean. Everything looks brand new: microwave, refrigerator, paint, furniture (nice wood). Bathroom is superclean, hot water comes quickly for the morning shower. Comfortable king size bed, not too hard or soft, lots of lights, good air conditioning. The desk is large, the round dining table seats two. The 25" TV has HBO, but I used my computer to download Netscape's "Watch Instantly" movies through the high speed internet connection that was provided at no cost. Mgmt can provide a Cat 5 cable if you forget yours. Local calls are free.I feel very safe here. It's quiet. Mgmt and crew are pleasant. There's a patio on the upper deck that's nice for eating. The only hiccup I can think of is that one of the electrical outlets didn't work so I had to unplug a lamp for my laptop and, if you eat a big breakfast, the continental won't fill you up: coffee, oj, sweet rolls and English muffins. But the supermarket is across the street.More</t>
   </si>
   <si>
-    <t>travelmom48</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r16371081-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>16371081</t>
+  </si>
+  <si>
+    <t>05/24/2008</t>
+  </si>
+  <si>
+    <t>Nice, clean room!</t>
+  </si>
+  <si>
+    <t>I stayed at the Econo Lodge in Glendale for 2 nights (May 21 and 22, 2008).  I was staying in the area to do some shopping (coming from a town 3 hours away with very little shopping opportunities) and was by myself so wanted a safe place and a clean room.I was very happy with my room! The carpet was brand new! The room was very clean and comfortable...absolutely no complaints!Also, the hotel was very quiet and I felt safe..no worries there either!  So, now I have a new "go to" place when I am in this area and I am so familiar with the whole area that I like to come down every so often just to shop! With the good price I have more money to spend on shopping and eating out.PattiMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I stayed at the Econo Lodge in Glendale for 2 nights (May 21 and 22, 2008).  I was staying in the area to do some shopping (coming from a town 3 hours away with very little shopping opportunities) and was by myself so wanted a safe place and a clean room.I was very happy with my room! The carpet was brand new! The room was very clean and comfortable...absolutely no complaints!Also, the hotel was very quiet and I felt safe..no worries there either!  So, now I have a new "go to" place when I am in this area and I am so familiar with the whole area that I like to come down every so often just to shop! With the good price I have more money to spend on shopping and eating out.PattiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r16117976-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>16117976</t>
+  </si>
+  <si>
+    <t>05/16/2008</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>If you want a clean, nice room at a great value this is the place. Our room was well above many higher priced hotels and was a wonderful surprise to a late flight into LAX, bathroom was spotless clean.  It is also in a good area and location with many places to eat, simply can't say enough about our room. Will stay here again when I return to LA. Highly Recommend</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r13270266-Econo_Lodge-Glendale_California.html</t>
@@ -1590,9 +2265,6 @@
     <t>February 2008</t>
   </si>
   <si>
-    <t>luckypriceisright</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r6899178-Econo_Lodge-Glendale_California.html</t>
   </si>
   <si>
@@ -1624,6 +2296,36 @@
   </si>
   <si>
     <t>My family stays at this hotel every year and the owners are friendly and hospitable. We have had no problems here and would recommend it to anyone. It is fairly priced and everyone there is respectful and vefy helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r3085570-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>3085570</t>
+  </si>
+  <si>
+    <t>01/24/2005</t>
+  </si>
+  <si>
+    <t>I agree with last guy.</t>
+  </si>
+  <si>
+    <t>My wife and I needed a place to spend one night in this area while visiting relatives.  It's old, dirty, noisy, in a bad neighborhood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d77107-r2423868-Econo_Lodge-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>2423868</t>
+  </si>
+  <si>
+    <t>08/05/2004</t>
+  </si>
+  <si>
+    <t>This place is terrible</t>
+  </si>
+  <si>
+    <t>I stayed at this place last night.  It was horrible.  They gave me thier "suit".  It was dirty, old and smelly.  Do not stay there.  I have stayed at the Best Western just couple of blocks away before and it was much cleaner.  I couldn't wait to check out of my room at Econo Lodge.  The furniture looks very old and dirty.  And the price ($90 with tax) was average.</t>
   </si>
 </sst>
 </file>
@@ -2128,608 +2830,564 @@
       <c r="A2" t="n">
         <v>19542</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19542</v>
       </c>
-      <c r="B3" t="n">
-        <v>174109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19542</v>
       </c>
-      <c r="B4" t="n">
-        <v>174110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19542</v>
       </c>
-      <c r="B5" t="n">
-        <v>174111</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19542</v>
       </c>
-      <c r="B6" t="n">
-        <v>174112</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19542</v>
       </c>
-      <c r="B7" t="n">
-        <v>32369</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19542</v>
       </c>
-      <c r="B8" t="n">
-        <v>128151</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19542</v>
       </c>
-      <c r="B9" t="n">
-        <v>17347</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19542</v>
       </c>
-      <c r="B10" t="n">
-        <v>174113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>4</v>
@@ -2738,401 +3396,387 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19542</v>
       </c>
-      <c r="B11" t="n">
-        <v>174114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19542</v>
       </c>
-      <c r="B12" t="n">
-        <v>174115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19542</v>
       </c>
-      <c r="B13" t="n">
-        <v>174116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>160</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19542</v>
       </c>
-      <c r="B14" t="n">
-        <v>174117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19542</v>
       </c>
-      <c r="B15" t="n">
-        <v>174118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19542</v>
       </c>
-      <c r="B16" t="n">
-        <v>174119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3144,198 +3788,196 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19542</v>
       </c>
-      <c r="B17" t="n">
-        <v>174120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19542</v>
       </c>
-      <c r="B18" t="n">
-        <v>174121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>204</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19542</v>
       </c>
-      <c r="B19" t="n">
-        <v>174122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3345,271 +3987,251 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19542</v>
       </c>
-      <c r="B20" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19542</v>
       </c>
-      <c r="B21" t="n">
-        <v>174123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+      <c r="N21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>223</v>
+      </c>
+      <c r="X21" t="s">
         <v>224</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>225</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19542</v>
       </c>
-      <c r="B22" t="n">
-        <v>8040</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19542</v>
       </c>
-      <c r="B23" t="n">
-        <v>174124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3619,69 +4241,65 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19542</v>
       </c>
-      <c r="B24" t="n">
-        <v>2915</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3690,812 +4308,756 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19542</v>
       </c>
-      <c r="B25" t="n">
-        <v>174125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
         <v>257</v>
       </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J25" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" t="s">
-        <v>260</v>
-      </c>
-      <c r="L25" t="s">
-        <v>261</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>262</v>
-      </c>
-      <c r="O25" t="s">
-        <v>85</v>
-      </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19542</v>
       </c>
-      <c r="B26" t="n">
-        <v>174126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19542</v>
       </c>
-      <c r="B27" t="n">
-        <v>16552</v>
-      </c>
-      <c r="C27" t="s">
-        <v>274</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19542</v>
       </c>
-      <c r="B28" t="n">
-        <v>174127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>281</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19542</v>
       </c>
-      <c r="B29" t="n">
-        <v>99505</v>
-      </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19542</v>
       </c>
-      <c r="B30" t="n">
-        <v>18686</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="X30" t="s">
+        <v>265</v>
+      </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19542</v>
       </c>
-      <c r="B31" t="n">
-        <v>174128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
       <c r="Y31" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19542</v>
       </c>
-      <c r="B32" t="n">
-        <v>174129</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J32" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
       <c r="Y32" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>19542</v>
       </c>
-      <c r="B33" t="n">
-        <v>1826</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s">
-        <v>106</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="X33" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>19542</v>
       </c>
-      <c r="B34" t="n">
-        <v>18121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>327</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="X34" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="Y34" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>19542</v>
       </c>
-      <c r="B35" t="n">
-        <v>142910</v>
-      </c>
-      <c r="C35" t="s">
-        <v>334</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>19542</v>
       </c>
-      <c r="B36" t="n">
-        <v>174130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>344</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
-      <c r="N36" t="s">
-        <v>350</v>
-      </c>
-      <c r="O36" t="s">
-        <v>54</v>
-      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -4506,545 +5068,509 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>19542</v>
       </c>
-      <c r="B37" t="n">
-        <v>4094</v>
-      </c>
-      <c r="C37" t="s">
-        <v>352</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" t="s">
+        <v>322</v>
+      </c>
       <c r="Y37" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>19542</v>
       </c>
-      <c r="B38" t="n">
-        <v>142910</v>
-      </c>
-      <c r="C38" t="s">
-        <v>334</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="O38" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>19542</v>
       </c>
-      <c r="B39" t="n">
-        <v>174131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>366</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>19542</v>
       </c>
-      <c r="B40" t="n">
-        <v>174132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>372</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>19542</v>
       </c>
-      <c r="B41" t="n">
-        <v>174133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>379</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="X41" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="Y41" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>19542</v>
       </c>
-      <c r="B42" t="n">
-        <v>174134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>387</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="X42" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="Y42" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>19542</v>
       </c>
-      <c r="B43" t="n">
-        <v>174135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>397</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="X43" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="Y43" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>19542</v>
       </c>
-      <c r="B44" t="n">
-        <v>174136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>403</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -5054,220 +5580,190 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="X44" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="Y44" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>19542</v>
       </c>
-      <c r="B45" t="n">
-        <v>174137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>411</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="X45" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>19542</v>
       </c>
-      <c r="B46" t="n">
-        <v>174138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>419</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
         <v>4</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="X46" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="Y46" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>19542</v>
       </c>
-      <c r="B47" t="n">
-        <v>174139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>427</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -5278,275 +5774,257 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>368</v>
+      </c>
+      <c r="X47" t="s">
+        <v>369</v>
+      </c>
       <c r="Y47" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>19542</v>
       </c>
-      <c r="B48" t="n">
-        <v>174140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>434</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="J48" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
         <v>3</v>
       </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>368</v>
+      </c>
+      <c r="X48" t="s">
+        <v>369</v>
+      </c>
       <c r="Y48" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>19542</v>
       </c>
-      <c r="B49" t="n">
-        <v>174141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>442</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="J49" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>368</v>
+      </c>
+      <c r="X49" t="s">
+        <v>369</v>
+      </c>
       <c r="Y49" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>19542</v>
       </c>
-      <c r="B50" t="n">
-        <v>174142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>448</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s">
-        <v>85</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>368</v>
+      </c>
+      <c r="X50" t="s">
+        <v>369</v>
+      </c>
       <c r="Y50" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>19542</v>
       </c>
-      <c r="B51" t="n">
-        <v>174143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>455</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>427</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
         <v>3</v>
       </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>4</v>
@@ -5557,70 +6035,62 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>19542</v>
       </c>
-      <c r="B52" t="n">
-        <v>174144</v>
-      </c>
-      <c r="C52" t="s">
-        <v>461</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="O52" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5628,70 +6098,62 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>19542</v>
       </c>
-      <c r="B53" t="n">
-        <v>174145</v>
-      </c>
-      <c r="C53" t="s">
-        <v>469</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>85</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5699,137 +6161,119 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>19542</v>
       </c>
-      <c r="B54" t="n">
-        <v>174146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>477</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>439</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>4</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>19542</v>
       </c>
-      <c r="B55" t="n">
-        <v>174147</v>
-      </c>
-      <c r="C55" t="s">
-        <v>483</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="O55" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5837,201 +6281,187 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>19542</v>
       </c>
-      <c r="B56" t="n">
-        <v>174148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>490</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>455</v>
+      </c>
+      <c r="O56" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>456</v>
+      </c>
+      <c r="X56" t="s">
+        <v>457</v>
+      </c>
       <c r="Y56" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>19542</v>
       </c>
-      <c r="B57" t="n">
-        <v>174149</v>
-      </c>
-      <c r="C57" t="s">
-        <v>497</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="J57" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="K57" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="O57" t="s">
-        <v>85</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>456</v>
+      </c>
+      <c r="X57" t="s">
+        <v>457</v>
+      </c>
       <c r="Y57" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>19542</v>
       </c>
-      <c r="B58" t="n">
-        <v>174150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>505</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="J58" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="O58" t="s">
-        <v>146</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6043,182 +6473,192 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
       <c r="Y58" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>19542</v>
       </c>
-      <c r="B59" t="n">
-        <v>174151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>513</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="J59" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="O59" t="s">
-        <v>146</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>471</v>
+      </c>
+      <c r="X59" t="s">
+        <v>472</v>
+      </c>
       <c r="Y59" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>19542</v>
       </c>
-      <c r="B60" t="n">
-        <v>174152</v>
-      </c>
-      <c r="C60" t="s">
-        <v>520</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="J60" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="K60" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+      <c r="N60" t="s">
+        <v>486</v>
+      </c>
+      <c r="O60" t="s">
+        <v>144</v>
+      </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>471</v>
+      </c>
+      <c r="X60" t="s">
+        <v>472</v>
+      </c>
       <c r="Y60" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>19542</v>
       </c>
-      <c r="B61" t="n">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="J61" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="K61" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
@@ -6228,10 +6668,2799 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>472</v>
+      </c>
       <c r="Y61" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>496</v>
+      </c>
+      <c r="J62" t="s">
+        <v>497</v>
+      </c>
+      <c r="K62" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" t="s">
+        <v>499</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>501</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>502</v>
+      </c>
+      <c r="J63" t="s">
+        <v>503</v>
+      </c>
+      <c r="K63" t="s">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>506</v>
+      </c>
+      <c r="O63" t="s">
+        <v>257</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>506</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" t="s">
+        <v>514</v>
+      </c>
+      <c r="K65" t="s">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s">
+        <v>516</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>144</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>520</v>
+      </c>
+      <c r="J66" t="s">
+        <v>514</v>
+      </c>
+      <c r="K66" t="s">
+        <v>521</v>
+      </c>
+      <c r="L66" t="s">
+        <v>522</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>517</v>
+      </c>
+      <c r="O66" t="s">
+        <v>108</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J67" t="s">
+        <v>526</v>
+      </c>
+      <c r="K67" t="s">
+        <v>527</v>
+      </c>
+      <c r="L67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>517</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>368</v>
+      </c>
+      <c r="X67" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
         <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>535</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>368</v>
+      </c>
+      <c r="X68" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s">
+        <v>541</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>368</v>
+      </c>
+      <c r="X69" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>544</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>545</v>
+      </c>
+      <c r="J70" t="s">
+        <v>546</v>
+      </c>
+      <c r="K70" t="s">
+        <v>547</v>
+      </c>
+      <c r="L70" t="s">
+        <v>548</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>368</v>
+      </c>
+      <c r="X70" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>550</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>551</v>
+      </c>
+      <c r="J71" t="s">
+        <v>552</v>
+      </c>
+      <c r="K71" t="s">
+        <v>553</v>
+      </c>
+      <c r="L71" t="s">
+        <v>554</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>470</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>559</v>
+      </c>
+      <c r="J72" t="s">
+        <v>552</v>
+      </c>
+      <c r="K72" t="s">
+        <v>560</v>
+      </c>
+      <c r="L72" t="s">
+        <v>561</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>470</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>555</v>
+      </c>
+      <c r="X72" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>563</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>564</v>
+      </c>
+      <c r="J73" t="s">
+        <v>565</v>
+      </c>
+      <c r="K73" t="s">
+        <v>566</v>
+      </c>
+      <c r="L73" t="s">
+        <v>567</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>568</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>569</v>
+      </c>
+      <c r="X73" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>575</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>576</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>569</v>
+      </c>
+      <c r="X74" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>580</v>
+      </c>
+      <c r="K75" t="s">
+        <v>581</v>
+      </c>
+      <c r="L75" t="s">
+        <v>582</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>576</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>368</v>
+      </c>
+      <c r="X75" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>584</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>585</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>588</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>589</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>368</v>
+      </c>
+      <c r="X76" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>591</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>592</v>
+      </c>
+      <c r="J77" t="s">
+        <v>593</v>
+      </c>
+      <c r="K77" t="s">
+        <v>594</v>
+      </c>
+      <c r="L77" t="s">
+        <v>595</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>596</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>368</v>
+      </c>
+      <c r="X77" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>598</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>599</v>
+      </c>
+      <c r="J78" t="s">
+        <v>600</v>
+      </c>
+      <c r="K78" t="s">
+        <v>601</v>
+      </c>
+      <c r="L78" t="s">
+        <v>602</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>603</v>
+      </c>
+      <c r="O78" t="s">
+        <v>257</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>368</v>
+      </c>
+      <c r="X78" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>605</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>606</v>
+      </c>
+      <c r="J79" t="s">
+        <v>607</v>
+      </c>
+      <c r="K79" t="s">
+        <v>608</v>
+      </c>
+      <c r="L79" t="s">
+        <v>609</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>610</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>611</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>612</v>
+      </c>
+      <c r="J80" t="s">
+        <v>613</v>
+      </c>
+      <c r="K80" t="s">
+        <v>614</v>
+      </c>
+      <c r="L80" t="s">
+        <v>615</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>616</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>617</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>618</v>
+      </c>
+      <c r="J81" t="s">
+        <v>619</v>
+      </c>
+      <c r="K81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L81" t="s">
+        <v>621</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>622</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>624</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>625</v>
+      </c>
+      <c r="J82" t="s">
+        <v>626</v>
+      </c>
+      <c r="K82" t="s">
+        <v>627</v>
+      </c>
+      <c r="L82" t="s">
+        <v>628</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>629</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J83" t="s">
+        <v>631</v>
+      </c>
+      <c r="K83" t="s">
+        <v>632</v>
+      </c>
+      <c r="L83" t="s">
+        <v>633</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>634</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>636</v>
+      </c>
+      <c r="J84" t="s">
+        <v>637</v>
+      </c>
+      <c r="K84" t="s">
+        <v>638</v>
+      </c>
+      <c r="L84" t="s">
+        <v>639</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>640</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>641</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>642</v>
+      </c>
+      <c r="J85" t="s">
+        <v>643</v>
+      </c>
+      <c r="K85" t="s">
+        <v>644</v>
+      </c>
+      <c r="L85" t="s">
+        <v>645</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>646</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>648</v>
+      </c>
+      <c r="J86" t="s">
+        <v>649</v>
+      </c>
+      <c r="K86" t="s">
+        <v>650</v>
+      </c>
+      <c r="L86" t="s">
+        <v>651</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>654</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>657</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>660</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K88" t="s">
+        <v>662</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>664</v>
+      </c>
+      <c r="O88" t="s">
+        <v>108</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>665</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>666</v>
+      </c>
+      <c r="J89" t="s">
+        <v>667</v>
+      </c>
+      <c r="K89" t="s">
+        <v>668</v>
+      </c>
+      <c r="L89" t="s">
+        <v>669</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>664</v>
+      </c>
+      <c r="O89" t="s">
+        <v>257</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>670</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>671</v>
+      </c>
+      <c r="J90" t="s">
+        <v>672</v>
+      </c>
+      <c r="K90" t="s">
+        <v>673</v>
+      </c>
+      <c r="L90" t="s">
+        <v>674</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>675</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>677</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>678</v>
+      </c>
+      <c r="J91" t="s">
+        <v>679</v>
+      </c>
+      <c r="K91" t="s">
+        <v>680</v>
+      </c>
+      <c r="L91" t="s">
+        <v>681</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>682</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>683</v>
+      </c>
+      <c r="J92" t="s">
+        <v>684</v>
+      </c>
+      <c r="K92" t="s">
+        <v>685</v>
+      </c>
+      <c r="L92" t="s">
+        <v>686</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>687</v>
+      </c>
+      <c r="O92" t="s">
+        <v>257</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>688</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>689</v>
+      </c>
+      <c r="J93" t="s">
+        <v>690</v>
+      </c>
+      <c r="K93" t="s">
+        <v>691</v>
+      </c>
+      <c r="L93" t="s">
+        <v>692</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>694</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>695</v>
+      </c>
+      <c r="J94" t="s">
+        <v>696</v>
+      </c>
+      <c r="K94" t="s">
+        <v>697</v>
+      </c>
+      <c r="L94" t="s">
+        <v>698</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>699</v>
+      </c>
+      <c r="O94" t="s">
+        <v>257</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>701</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>702</v>
+      </c>
+      <c r="J95" t="s">
+        <v>703</v>
+      </c>
+      <c r="K95" t="s">
+        <v>704</v>
+      </c>
+      <c r="L95" t="s">
+        <v>705</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>707</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>708</v>
+      </c>
+      <c r="J96" t="s">
+        <v>709</v>
+      </c>
+      <c r="K96" t="s">
+        <v>710</v>
+      </c>
+      <c r="L96" t="s">
+        <v>711</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>712</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>714</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>715</v>
+      </c>
+      <c r="J97" t="s">
+        <v>716</v>
+      </c>
+      <c r="K97" t="s">
+        <v>717</v>
+      </c>
+      <c r="L97" t="s">
+        <v>718</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>719</v>
+      </c>
+      <c r="O97" t="s">
+        <v>108</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>721</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>722</v>
+      </c>
+      <c r="J98" t="s">
+        <v>723</v>
+      </c>
+      <c r="K98" t="s">
+        <v>724</v>
+      </c>
+      <c r="L98" t="s">
+        <v>725</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>726</v>
+      </c>
+      <c r="O98" t="s">
+        <v>144</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>728</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>729</v>
+      </c>
+      <c r="J99" t="s">
+        <v>730</v>
+      </c>
+      <c r="K99" t="s">
+        <v>731</v>
+      </c>
+      <c r="L99" t="s">
+        <v>732</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>726</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>733</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>734</v>
+      </c>
+      <c r="J100" t="s">
+        <v>735</v>
+      </c>
+      <c r="K100" t="s">
+        <v>736</v>
+      </c>
+      <c r="L100" t="s">
+        <v>737</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>738</v>
+      </c>
+      <c r="O100" t="s">
+        <v>108</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>739</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>740</v>
+      </c>
+      <c r="J101" t="s">
+        <v>741</v>
+      </c>
+      <c r="K101" t="s">
+        <v>742</v>
+      </c>
+      <c r="L101" t="s">
+        <v>743</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>745</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>746</v>
+      </c>
+      <c r="J102" t="s">
+        <v>747</v>
+      </c>
+      <c r="K102" t="s">
+        <v>748</v>
+      </c>
+      <c r="L102" t="s">
+        <v>749</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>750</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>751</v>
+      </c>
+      <c r="J103" t="s">
+        <v>752</v>
+      </c>
+      <c r="K103" t="s">
+        <v>753</v>
+      </c>
+      <c r="L103" t="s">
+        <v>754</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>19542</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>755</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>756</v>
+      </c>
+      <c r="J104" t="s">
+        <v>757</v>
+      </c>
+      <c r="K104" t="s">
+        <v>758</v>
+      </c>
+      <c r="L104" t="s">
+        <v>759</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
